--- a/results/posts_sorted_by_default.xlsx
+++ b/results/posts_sorted_by_default.xlsx
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37719</v>
+        <v>37721</v>
       </c>
       <c r="E7" t="n">
         <v>84</v>
@@ -722,16 +722,16 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2306529865584984</v>
+        <v>0.2306407571379338</v>
       </c>
       <c r="L7" t="n">
-        <v>21.38424177816959</v>
+        <v>21.38413244478225</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07953551260637874</v>
+        <v>0.07953129556480475</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2306529865584984</v>
+        <v>0.2306407571379338</v>
       </c>
     </row>
     <row r="8">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35663</v>
+        <v>35665</v>
       </c>
       <c r="E9" t="n">
         <v>71</v>
@@ -827,16 +827,16 @@
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2131060202450719</v>
+        <v>0.2130940698163465</v>
       </c>
       <c r="L9" t="n">
-        <v>19.34951831276706</v>
+        <v>19.34941308466194</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1402013291085999</v>
+        <v>0.1401934669844385</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2131060202450719</v>
+        <v>0.2130940698163465</v>
       </c>
     </row>
     <row r="10">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="E11" t="n">
         <v>47</v>
@@ -943,16 +943,16 @@
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1092141042214595</v>
+        <v>0.1092116700470279</v>
       </c>
       <c r="L11" t="n">
-        <v>11.91843566954375</v>
+        <v>11.91841052945706</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04457718539651406</v>
+        <v>0.04457619185592974</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1092141042214595</v>
+        <v>0.1092116700470279</v>
       </c>
     </row>
     <row r="12">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -1792,16 +1792,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4164187983343248</v>
+        <v>0.4154302670623145</v>
       </c>
       <c r="L24" t="n">
-        <v>2.440127283231347</v>
+        <v>2.439147644655355</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4164187983343248</v>
+        <v>0.4154302670623145</v>
       </c>
     </row>
     <row r="25">

--- a/results/posts_sorted_by_default.xlsx
+++ b/results/posts_sorted_by_default.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -445,7 +445,7 @@
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="21" customWidth="1" min="11" max="11"/>
+    <col width="22" customWidth="1" min="11" max="11"/>
     <col width="21" customWidth="1" min="12" max="12"/>
     <col width="25" customWidth="1" min="13" max="13"/>
     <col width="27" customWidth="1" min="14" max="14"/>
@@ -454,7 +454,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Канал: sellerx</t>
+          <t>Канал: alina_telling</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Всего постов: 30</t>
+          <t>Всего постов: 166</t>
         </is>
       </c>
     </row>
@@ -547,34 +547,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>14.05.2025 09:09</t>
+          <t>17.03.2025 09:23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>📦**Сколько штук товара нужно для полноценного теста? 
-__Разбираем по полочкам.__**
-Часто можно услышать мнение, что для проверки новой позиции достаточно 15–20 единиц.
-**__Совет обычно простой:__** отправить небольшую партию на склад, дождаться органических продаж — если их нет, товар "не зашел".
-Звучит логично? На первый взгляд — возможно. Но давайте разберемся глубже.
-🔍Один из ключевых факторов, влияющих на видимость карточки в поиске — **скорость доставки**, которая напрямую связана с геораспределением по складам.
-И тут встает вопрос: **__как можно объективно тестировать товар, если он лежит на одном складе (например, только в Коледино)__?** 
-Минимум, который нужно охватить — 3 **склада**, и это ещё скромный старт.
-**__Теперь дальше. Из 15–20 штук:__**
- — Часть пойдет на выкупы и отзывы
- — Часть "сгорит" при запуске рекламы
- — Чтобы собрать адекватную аналитику по рекламным кампаниям, нужно хотя бы 1000–1500 показов. С оставшимися единицами просто не хватит ресурса, чтобы что-то проанализировать.
-💥**__Итог:__** тест на 15–20 единиц не покажет ничего. Ни поведение карточки в органике, ни эффективность рекламы. Такой подход — просто выброшенные деньги, которые вы не вернете, особенно если товар «не пойдет».
-**__Так сколько нужно?
-__**— Партия должна быть достаточной, чтобы обеспечить **раскладку хотя бы на 3 склада**, провести рекламные тесты и дать органике шанс "зажечь".
-Конкретное количество зависит от вашего сегмента, но точно больше 20. Чаще — от 50 и выше.
-**__— А что, если товар не зайдет?__**
-Тут важен подход: изначально выбирайте продукт, который можно **перепродать без потерь** или с минимальными. Это и есть стратегия. Никто не застрахован от ошибок, но **правильно выбранный товар можно "слить" без убытка**.
-**__Поэтому:__**
-— Предварительный анализ ниши
-— Грамотное планирование логистики
-— Рациональный объем закупки
-#SellerXразбор</t>
+          <t>**Ну вот собственно, да! Это продукт, ради которого люди заводят будильники! ⏰ 😂
+**Но я хочу поговорить о нем, с точки зрения бизнеса. Почему он такой успешный как бизнес. И показать вам, что должно быть в продукте, чтоб он стабильно круто продавался. **
+Собираем 400 реакций, и я выкладываю разбор**</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,61 +563,53 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1050</v>
+        <v>7046</v>
       </c>
       <c r="E5" t="n">
-        <v>57</v>
+        <v>715</v>
       </c>
       <c r="F5" t="n">
-        <v>57</v>
+        <v>715</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>57</v>
+        <v>715</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.61904761904762</v>
+        <v>10.275333522566</v>
       </c>
       <c r="L5" t="n">
-        <v>23.13023819487083</v>
+        <v>207.6567505717487</v>
       </c>
       <c r="M5" t="n">
-        <v>1.904761904761905</v>
+        <v>0.709622480840193</v>
       </c>
       <c r="N5" t="n">
-        <v>5.61904761904762</v>
+        <v>10.275333522566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15.05.2025 10:05</t>
+          <t>06.02.2025 16:14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>**Средний чек** 💰
-В каком ценовом сегменте лучше работать? На самом деле — в любом. Но у каждого диапазона свои особенности и подход.
-1. Низкий чек (200–500 ₽) — Прибыль с одной продажи небольшая, хоть и высокая маржа в процентах. — Основной заработок — только за счёт объёма. __Примеры: мелкая косметика, аксессуары, щётки, органайзеры и т.п.__ У таких товаров — десятки тысяч продаж в месяц.
-2. Средний чек (1 000–2 000 ₽)
-— Золотая середина: приличная прибыль с каждой единицы и достаточно массовый спрос. — Такие товары уже не «летают» в таких объёмах, как дешёвые — придётся мириться с меньшей частотой заказов. Однако в деньгах вы выигрываете: меньше продаж — больше прибыли.
-3. Высокий чек (от 3 000 ₽ и выше)
-— Максимальная прибыль с каждой продажи. — Низкая оборачиваемость. Такие товары продаются медленно, и многие новички начинают переживать, что «что-то пошло не так».
-**__А какой чек лучше выбрать?__**
-Нет универсального ответа. Всё зависит от:
-— Ваших целей
-— Доступного бюджета
-— Расчётов юнит-экономики и анализа ниши
-Вывод: Работать можно в любом сегменте. Главное — чтобы товар продавался, конвертировал и попадал в нужную аудиторию.
-Не цена решает — а спрос и стратегия 💵</t>
+          <t>Это я смотрю, какие вы классные!!!! Большинство ответов правильные!🔥🔥🔥
+Да! С сомнительным потенциалом тут «КУРС ПО РОСПИСИ ПРЯНИКОВ» и АУДИОГИД, который проводит экскурсии по времени но без гида , а с наушниками )))). Как конкурировать с телефоном, куда можно закачать любую экскурсию за 3 копейки и личными наушниками и пойти в любое время, не привязываясь к группе - не очень понятно. 
+Но из тех же пряников можно сделать продукт поинтереснее. Не курс, а мастер классы, например. . Это уже другой сценарий: досуг, время с друзьями, ивент для дня рождения, активность с коллегами. 
+Чувствуете? Вроде все то же самое, но потенциал как будто даже навскидку сильно больше. Хотя если пойти на Продукт и проработать эту идею с преподом, возможно найдутся еще более интересный вариант продукта! 
+Потому что идея - это еще ни фига не продукт. Идею надо крутить, «докручивать» до варианта с максимальной монетизацией. А это можно сделать только посчитав потенциал.
+**Собираем 500 🔥 и я публикую вам расчет потенциала «баньки», про которую тоже многие написали «не пойдет».**</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,53 +618,87 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1813</v>
+        <v>6830</v>
       </c>
       <c r="E6" t="n">
-        <v>64</v>
+        <v>701</v>
       </c>
       <c r="F6" t="n">
-        <v>64</v>
+        <v>701</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>64</v>
+        <v>701</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530060672917816</v>
+        <v>10.4099560761347</v>
       </c>
       <c r="L6" t="n">
-        <v>22.02968286518148</v>
+        <v>203.6548687134448</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.530060672917816</v>
+        <v>10.4099560761347</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22.06.2025 13:00</t>
+          <t>20.07.2025 13:57</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>🎉 Розыгрыш завершен! Победители:
-1. Светлана С (899236244)
-2. Emnemwmenwm (2118984450)
-3. 𝕯𝖆𝖌𝖊𝖘𝖙𝖆𝖓 (7583567337)
-4. Ирина (1977267265)
-5. vivishkavi (7691301206)</t>
+          <t>Набрали! Выкладываю
+**Структура скрипта, которая работает в 80% случаев:**
+__
+• Вступление
+• Выяснение цели 
+• Предофферные триггеры
+• Оффер
+• Работа с возражениями (постофферные триггеры)
+• Оформление заказа/записи
+• Апсейл 
+__
+**Выяснение цели:** что хочет клиент получить в результате услуги👇.
+- Английский: для себя или для экзамена.
+- Массаж: расслабление или есть боли. 
+- Растение в сад: цветы или плодовое. 
+- Платье: на какое именно мероприятие- коктейль, свадьба, вечеринка…
+**Предофферные триггеры  **🟰 преимущества продукта ➕ усиление проблемы ➕ триггер микротаргетинга, если возможно ➕ триггер доверия 
+«Это тонирование максимально бережное для волос, так как туда входит масло, которое …»(**преимущество продукта**) ОП!
+«После предыдущих окрашиваний в блонд волосы довольно сильно повреждены, блонд сделает их еще более сухими и ломкими» (**усиление проблемы**) ОП!
+«У меня такая же структура волос, как и у вас, тонкие славянские волосы. И цвет такой же. Мне это тонирование помогло бережно выйти из блонда и подчеркнуть наш природный красивый русый цвет, глубокий и очень дорого выглядящий , если подобрать хороший уход и бережное окрашивание» (**триггер микротаргетинга = пример максимально похожий по типажу**) ООООООП!
+«Я - одна из первых мастеров, кто начал работать в этой технике, я ездила на специальное обучение в Нью Йорк к автору этого метода» (**триггер доверия**) ООООП!
+Забирайте структуру скрипта☝️. 
+Завтра разберем 5 и 7 пункты: Работу с возражениями и апсейл. 
+Это довольно примитивный пример. 
+В бизнесе все сложнее, чем в этой парикмахерской. Ни у всех продажи в торговом зале. У кого-то чаты, директ, прямые продажи, презентации, продающие встречи или вебинары. Не у всех легкие клиенты. Не у всех стандартные скрипты. Не у всех скрипт одноэтапный. Не у всех простой продукт. И проч и проч. 
+Поэтому мы сделали подробный [спецкурс,](https://soho.mba/sc-script?promoCode=SCRIPT5000#price) который нужен всем, кто продает через коммуникацию с клиентом.  И чей цикл сделки подразумевает «лид/заявка - диалог, вопросы, возражения, повторные касания - оплата». 
+Что входит в [спецкурс](https://soho.mba/sc-script?promoCode=SCRIPT5000#price)
+✅ Скрипты: структура любого продающего скрипта 
+✅ Продажа в переписке: в чате, в мессенджере
+✅ Работа в торговом зале 
+✅ Питч-отклик на Профи/Авито/др агрегаторах
+✅ Сценарий продающей встречи (консультация, пробное занятие)
+✅ Продажа через диагностики
+✅ Продажа через вебинар/семинар/цепочку вебинаров
+✅ Продающее Коммерческое предложение: как написать. Прямые продажи. Холодные продажи. 
+✅ Закрытие возражений (дорого/подумаю/у конкурентов дешевле)
+✅ Апсейл
+Первые 100 мест заняли а первый день. ~~19.990~~ 👉 14.990
+👇👇👇
+https://soho.mba/sc-script?promoCode=SCRIPT5000#price</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -701,57 +707,48 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37721</v>
+        <v>5074</v>
       </c>
       <c r="E7" t="n">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2306407571379338</v>
+        <v>7.686243594797004</v>
       </c>
       <c r="L7" t="n">
-        <v>21.38413244478225</v>
+        <v>190.5196648076283</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07953129556480475</v>
+        <v>49.86204178163185</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2306407571379338</v>
+        <v>7.686243594797004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14.05.2025 21:34</t>
+          <t>23.01.2025 06:51</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>**🚨Торговые сети требуют ограничить скидки на маркетплейсах**
-Ассоциация компаний розничной торговли (АКОРТ) направила обращение в правительство с инициативой **ограничить масштабные скидки**, которые онлайн-платформы предлагают за свой счёт — зачастую **до 30–50%**. 
-По мнению участников офлайн-ритейла, такие ценовые стратегии приводят к вытеснению традиционной торговли с рынка и создают неравные условия конкуренции.📉
-АКОРТ предлагает внести в законопроект «О платформенной экономике» пункт, согласно которому размер скидок **не должен превышать 10% от годового оборота маркетплейса.**
-**__В чём суть конфликта?__**
-Маркетплейсы действуют по бизнес-модели, которая позволяет им работать по договорам комиссии с продавцами. 
-Товары принадлежат продавцам — а площадки могут снижать цены за счёт собственных средств, не затрагивая прибыль партнёров. 
-Это даёт им возможность гибко управлять акциями и устраивать глубокие распродажи — что и вызывает недовольство офлайн-сетей.
-📌Власти прокомментировали ситуацию, заявив, что рассматривают возможные поправки в законопроект, чтобы учесть интересы всех сторон. При этом предупреждают: жёсткое регулирование скидок может обернуться ростом цен и снижением качества обслуживания на рынке в целом.
-#SellerXновости</t>
+          <t>Думаю, следующий разбор сделать «выходить ли на Вайлдберрис в 2025 году». Делать? Или итак все понятно?😅</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -760,109 +757,106 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1080</v>
+        <v>8306</v>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>590</v>
       </c>
       <c r="F8" t="n">
-        <v>53</v>
+        <v>590</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>53</v>
+        <v>590</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4.907407407407407</v>
+        <v>7.620996869732723</v>
       </c>
       <c r="L8" t="n">
-        <v>20.02122564571698</v>
+        <v>178.9980789700359</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.907407407407407</v>
+        <v>7.620996869732723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05.06.2025 12:05</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>20.01.2025 16:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>**❗️Одним из первых указов Трампа станет признание в США только двух полов - мужского и женского, пишет Reuters со ссылкой на члена будущей администрации. **
+▪️Госучреждениия будут обязаны использовать в анкетах и удостоверениях личности только два пола.
+▪️Трансгендерным спортсменам запретят участвовать в женском спорте.
+▪️Будут запрещены «гендерная идеология» и программы разнообразия и инклюзивности в федеральном правительстве, добавляет CNN. Федеральные средства будет запрещено использовать на процедуры перехода из одного пола в другой.
+[**Платформа X (ru)**](https://x.com/ejdaysru) | [**Платформa Х (eng)**](https://x.com/ejdaysen) | [**BlueSky**](https://bsky.app/profile/ejdays.bsky.social)</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Текст</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35665</v>
+        <v>10417</v>
       </c>
       <c r="E9" t="n">
-        <v>71</v>
+        <v>575</v>
       </c>
       <c r="F9" t="n">
-        <v>71</v>
+        <v>575</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>71</v>
+        <v>575</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2130940698163465</v>
+        <v>5.855812613996352</v>
       </c>
       <c r="L9" t="n">
-        <v>19.34941308466194</v>
+        <v>167.6829565216667</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1401934669844385</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2130940698163465</v>
+        <v>5.855812613996352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16.05.2025 07:52</t>
+          <t>09.05.2025 13:21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>**Привет! Мы - SellerX. В этом канале рассказываем секреты о продаже на маркетплейсах: Wildberries, Ozon, Avito, Яндекс.Маркет. **
-__Навигация по каналу: __
-по тегу #гайдпоOzon #гайдпоWildberries #гайдпоЯндексМаркет — вы найдете гайды, полезные лайфхаки по маркетплейсам 
-по тегу #SellerXПолезное — разбираем и обсуждаем интересные и полезные темы
-по тегу #SellerXНовости — свежие новости по маркетплейсам и те новости, которые могут повлиять на них 
-по тегу #кейс — рассматриваем разные кейсы
-по тегу #вопросответ — отвечаем кратко и понятно на часто задаваемые вопросы от селлеров
-__Важные посты:__
-[Сравнение 3-х платных сервисов аналитики: MPStats, Moneyplace и SellMonitor](https://t.me/sellerx/10)
-[Бесплатный гайд в PDF-формате для старта на Wildberries](https://t.me/sellerx/16)
-[Создание карточки товара с помощью ИИ за 10 минут самостоятельно](https://t.me/sellerx/35)
-[Подборка бесплатных ботов-инструментов в телеграмм канале для работы с ВБ](https://t.me/sellerx/48)
-[Кейс: рост продаж на Я.Маркет в 7 раз за 4 месяца](https://t.me/sellerx/50)
-[Сколько товара нужно закупить для полноценного теста?](https://t.me/sellerx/51)
-[Как создать карточку товара на Wildberries — полный гайд](https://t.me/sellerx/209)
-[Важен ли товарный знак для работы на маркетплейсах?](https://t.me/sellerx/148)</t>
+          <t>С днем Великой Победы! 🕊️
+Я в этот день всегда думаю, сколько их осталось в живых: ветеранов, бабулек и дедушек, воевавших, помнящих этот день не по учебникам?…
+С каждым годом все меньше…🥹
+В школе я этого не понимала, когда на линейку приходили ветераны, старички. А сейчас так хочется обнять каждого🥺
+Рассказывайте свои истории. Истории своей семьи в комментариях 🙏 будем вместе помнить 🕊️</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -871,49 +865,48 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3332</v>
+        <v>6775</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>453</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>453</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>453</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1.530612244897959</v>
+        <v>7.114391143911439</v>
       </c>
       <c r="L10" t="n">
-        <v>16.30941619736425</v>
+        <v>139.9106321665067</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3001200480192077</v>
+        <v>0.2952029520295203</v>
       </c>
       <c r="N10" t="n">
-        <v>1.530612244897959</v>
+        <v>7.114391143911439</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21.06.2025 15:00</t>
+          <t>02.01.2025 11:58</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Напоминаем, что уже завтра будут определены победители конкурса 5 Telegram Premium. 
-Принимайте участие!💻</t>
+          <t>Надеюсь, на реакции не поскупитесь. Разбор огненный. Все цифры как на блюдечке 😊</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -922,63 +915,50 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>44867</v>
+        <v>7404</v>
       </c>
       <c r="E11" t="n">
-        <v>47</v>
+        <v>480</v>
       </c>
       <c r="F11" t="n">
-        <v>47</v>
+        <v>480</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>47</v>
+        <v>480</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1092116700470279</v>
+        <v>6.645056726094004</v>
       </c>
       <c r="L11" t="n">
-        <v>11.91841052945706</v>
+        <v>139.8406362653141</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04457619185592974</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1092116700470279</v>
+        <v>6.645056726094004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17.05.2025 11:03</t>
+          <t>27.05.2025 12:03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>**Реклама дешевых товаров за 300-400 рублей. Как не уйти в минус? **📉
-Вы завели товар за 300–400 ₽, запускаете рекламу — и вместо продаж получаете убытки. ДРР 50–100%, прибыли ноль. 
-— Почему так?
-Всё упирается в маржу. После комиссий, логистики и налогов у вас остаётся 50–70 ₽ (в лучшем случае). При этом клик в рекламе может стоить 40–50 ₽ — и вся экономика рассыпается.
-Рекламировать дешёвый товар — это отдельная история.
-Подходит только при:
-— Очень высокой конверсии карточки (2–3 клика = заказ)
-— Минимальных ставках и ювелирной настройке рекламы
-**__Что работает:__**
-— Ручное управление ставками. Автостратегии__ для дешевого товара— __табу.
-— Продвижение в поиске — безопаснее, т.к. оплата только за факт продажи (по %). Важно: правильно рассчитать, сколько можете отдать, чтобы остаться в плюсе.
-— SEO, отзывы, цена — всё должно быть идеально.
-Что рискованно:
-— Трафареты и вывод в топ — высокая цена клика, легко слить бюджет. Используйте только при постоянном контроле ДРР.
-Если реклама не даёт результатов — проверьте ставки конкурентов, оставьте только ПВП или выключите рекламу совсем.
-Реклама дешёвого товара — либо вы идеально её настраиваете и работаете с топ-карточкой, либо просто сливаете деньги. Если экономика не сходится даже при минимальных расходах — ищите более маржинальные товары.</t>
+          <t>Сегодня хочу разобрать, сколько способен принести правильный оффер В ДЕНЬГАХ. 
+Чтоб наглядно было видно: сколько специалист зарабатывает, когда оффер рабочий. И сколько, когда «оффер потому что у всех оффер». 
+Собираем 300 реакций и выкладываю аналитику 👇</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -987,110 +967,107 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>905</v>
+        <v>5113</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>432</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>432</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>432</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.314917127071823</v>
+        <v>8.625073342460395</v>
       </c>
       <c r="L12" t="n">
-        <v>11.74503070053256</v>
+        <v>131.8468694604069</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.586739683160571</v>
       </c>
       <c r="N12" t="n">
-        <v>3.314917127071823</v>
+        <v>8.625073342460395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>02.06.2025 10:40</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>18.03.2025 12:56</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Интересная дискуссия в комментариях про зумеров. 
+Кто-то пишет, что они просто другие, их мозг «улетел в космос» и нам их просто не понять и не догнать. 
+Другие пишут, что для работодателей зумеры наказание . Они забывают что было 2 часа назад, спывают дедлайны, не имеют элементарных навыков. 
+Я думаю, ответ в аналитике как обычно. Зумеры росли и познавали мир в самое идеальное и спокойное время из всех возможных за последнее столетие наверное 😂
+2000-2015 - золотое время, когда уже Закончились «лихие» 90-е с их стрессом и хаосом. Установился порядок. Начался расцвет потребления. В магазинах изобилие. Нет еще никаких геополитических  кризисов, пандемий, санкций. Вокруг куча возможностей. Доллар по 30. 
+Но как сказал кто-то из умных: «сильные люди делают спокойные временя, спокойные времена делают слабых людей». 
+Я думаю, что зумерская расслабленность и способность просто кайфовать/жить как раз отсюда. Они росли и становились в самые жирные и спокойные времена.</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>Текст</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21928</v>
+        <v>6868</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1641736592484495</v>
+        <v>5.678509027373326</v>
       </c>
       <c r="L13" t="n">
-        <v>10.52929553797922</v>
+        <v>125.5287103962763</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2736227654140824</v>
+        <v>5.53290623179965</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1641736592484495</v>
+        <v>5.678509027373326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16.05.2025 15:39</t>
+          <t>11.02.2025 15:17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>**Коллеги, давайте обсудим количество складов и их влияние на продажи **🏠🏠
-**Частая ошибка** — отгрузка только на 1–2 склада с самыми низкими тарифами. На первый взгляд — логично, но на практике такая стратегия может сильно ограничивать охват и скорость доставки.
-**__Чем больше складов — тем быстрее доставка → выше шанс, что товар купят.__**
-Представьте ситуацию: покупательница хочет выбрать из 3 купальников. Все 3 — в топе, все нравятся. 
-Но:
-— Первый купальник приедет завтра
-— Второй — через 3 дня
-— Третий — через неделю 
-**__Что произойдет? __**
-— Скорее всего, покупательница выберет тот, что придёт первым и не станет ждать остальные.
-Клиенты не смотрят, с какого склада идет товар и не обращают внимания на сроки доставки до оформления. 
-Важно!
-Это не значит, что нужно срочно грузить на все склады. Лучше начать с анализа: откуда идут заказы, где ваши товары чаще всего видны в поиске. Это можно отследить, например, через @Seogeo_bot — вставляете артикул и получаете позиции по регионам.
-А как у вас обстоят дела со складами?
-— Куда отгружаете?
-— Какие склады у вас не работают?
-#SellerXразбор</t>
+          <t>❌ **ДВА ГЛАВНЫЕ «НЕТ» ДЛЯ ЛЮБОГО ПРЕДПРИНИМАТЕЛЯ: 
+**
+1️⃣ Никогда не останавливай закупку рекламы и продвижение. Никогда. Как бы тяжело не было с деньгами, на маркетинг деньги надо найти. Если не будет продвижения, денег будет не просто мало, их не будет ВООБЩЕ. 
+2️⃣ Никогда не пытайтесь продавать с кислой жопой. Если бизнес связан с личными продажами: через блог, консультации, пробное занятие и проч - ваше состояние = ваши деньги. Следите за уровнем энергии. Это то что вы обмениваете на деньги.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1099,56 +1076,52 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>924</v>
+        <v>6077</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>388</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>388</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>17</v>
+        <v>388</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>1.948051948051948</v>
+        <v>6.713839065328287</v>
       </c>
       <c r="L14" t="n">
-        <v>7.382664815356907</v>
+        <v>120.9846897848489</v>
       </c>
       <c r="M14" t="n">
-        <v>1.082251082251082</v>
+        <v>1.151884153365147</v>
       </c>
       <c r="N14" t="n">
-        <v>1.948051948051948</v>
+        <v>6.713839065328287</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16.05.2025 10:24</t>
+          <t>23.05.2025 14:09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>💙💙💙**Ozon возобновил тестирование функции постоплаты в конце апреля** 
-Ozon уже тестировал постоплату в 2022-2024 году для одежды, обуви . 
-Текущая ситуация: С 25 апреля 2025 года Ozon возобновил тестирование постоплаты, но с ограничениями по регионам, категориям товаров, весу и объёму __+ __ лимиты для клиентов в зависимости от их покупательской истории.
-А теперь самое важное — **какое** в**лияние на продавцов? 
-**
-— Постоплата может привести к снижению выкупа товаров, увеличению возвратов и дополнительным логистическим затратам для продавцов. Это особенно актуально для категорий товаров, не требующих примерки
-— Процент отказов увеличится на «эмоциональные», трендовые товары, стоящие до 500₽, от которых люди как правило не отказываются, заплатив сразу.
-Однако компания ранее заявляла, что покупатели заказывают товары чаще, если их можно сначала посмотреть в пункте выдачи, а потом оплатить.
-Так что, все-таки постоплата — это хорошо или плохо для селлера?</t>
+          <t>Кстати. Я как любой советский ребенок, наверное, почти до 35 лет не понимала, зачем 2 одинаковых футболки. Или зачем 2 пары кроссовок на один сезон. Или зачем на зиму 3 пуховика. 
+Самый шок случился, когда недавно подруга сказала, что у нее есть 10 одинаковых белых маек от Zimmerly 🙈🤯.
+Когда я спросила - зачем, она ответила: ну как, три в стирке, две  в глажке, две  в чемодан положила, одна  на мне. Белые майки же 1 раз надел - и в стирку. Удобно, когда их много». 
+В тот момент мое мышление слегка сломалось 😂. Я никогда не думала, что так можно😂 
+Люди, у которых 5 пар кроссовок, 10 одинаковых маек, вы настоящие коучи по расширению сознания для меня!</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1157,67 +1130,48 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>974</v>
+        <v>5532</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>1.848049281314168</v>
+        <v>6.4352856109906</v>
       </c>
       <c r="L15" t="n">
-        <v>7.304399659831938</v>
+        <v>110.4199728272067</v>
       </c>
       <c r="M15" t="n">
-        <v>1.026694045174538</v>
+        <v>2.711496746203904</v>
       </c>
       <c r="N15" t="n">
-        <v>1.848049281314168</v>
+        <v>6.4352856109906</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19.05.2025 09:27</t>
+          <t>28.02.2025 19:18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>**Юнит-экономика. Что мы в нее закладываем? **🧮
-Это база, без которой невозможно выстраивать стабильный бизнес. Удивительно, но до сих пор многие селлеры её не считают. 
-**Что входит в расчёт юнит-экономики? **
-— Закуп товара + доставка до России
-— Все расходы на ФФ: упаковка, маркировка и т.п.
-— Комиссии и логистика маркетплейса
-— Налоги — с полной стоимости товара, указанной на сайте, а не с того, что «пришло» вам на счёт!
-**Обязательно считаем:**
-— Маржу
-— Точку безубыточности
-**Частые ошибки:**
-Округление валюты — например, считать юань не по 14.2, а по 15 «на всякий случай». Такие «страховки» съедают прибыль на объёме.
-Включение переменных расходов (фото, дизайн, документы). Эти траты важны, но они не привязаны к каждой единице.
-Неправильный расчёт логистики из Китая.
-__Считаем:__
-— Объём = длина × ширина × высота в сотых 
-— Плотность = вес всего товара÷ объём
-Зная плотность и цену перевозки, можно точно рассчитать доставку за 1 шт.
-Юнит-экономику можно быстро посчитать на самом Wildberries.
-И только когда всё просчитано, и маржа вас устраивает — можно запускать продвижение.</t>
+          <t>Кстати про костюм. Я тоже не понимаю, если у первых лиц есть жесткий дипломатический этикет официальных мероприятий - ПОЧЕМУ Зеленский каждый раз игнорирует эти правила?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1226,75 +1180,50 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>806</v>
+        <v>7674</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>2.109181141439206</v>
+        <v>4.573885848319</v>
       </c>
       <c r="L16" t="n">
-        <v>6.82228650149257</v>
+        <v>104.7831202451513</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.042481105029971</v>
       </c>
       <c r="N16" t="n">
-        <v>2.109181141439206</v>
+        <v>4.573885848319</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01.06.2025 09:18</t>
+          <t>25.01.2025 17:17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>**Как вести себя с новостью о том, что Wildberries поднимет комиссию с продаж на 5% с 9 июня? 🤔**
-Вот несколько конкретных стратегий, которые помогут не потерять прибыль:
-**1. Пересчитайте экономику каждой карточки**
-Проверьте маржинальность: как изменение комиссии повлияет на прибыль.
-Если товар становится убыточным — принимайте меры: от корректировки цены до смены поставщика.
-**2. Повысьте ценность, а не просто цену**
-Повышение цены "в лоб" может отпугнуть покупателя. Вместо этого:
-— Добавьте бонус (например, пробник, подарок);
-— Сделайте акцент на УТП (уникальное торговое предложение);
-— Улучшите карточку товара: фото, видео, описание, отзывы.
-**3. Повышайте цену уже сейчас, постепенно**
-**4. Перейдите на модель без комиссии или с минимальной**
-Рассмотрите модели:
-▫️ «Витрина экспресс»
-▫️«Самовывоз из магазина»
-— они не подпадают под повышение комиссии.
-**5. Оптимизируйте логистику и упаковку**
-Уменьшите стоимость хранения и доставки:
-— Переведите товары на FBS (если FBO дорогой);
-— Уменьшите габариты, пересчитайте вес.
-— Сравните цены у сторонних фулфилмент-операторов.
-**6. Автоматизируйте аналитику**
-Установите системы отслеживания прибыли по каждой карточке.
-Отслеживайте ROI по рекламе, чтобы не сливать бюджет зря.
-**7. Следите за акциями и бонусами от WB**
-Часто Wildberries компенсирует рост комиссии бонусами или временными программами поддержки.
-💡Рост комиссии — это повод оптимизировать бизнес, а не уходить с площадки.
-Правильная настройка процессов позволит не только сохранить прибыль, но и выйти в плюс.</t>
+          <t>Есть кто живой тут в субботу вечером?) дайте знать реакциями.
+А то я хочу сейчас срочно сделать серию разборов продуктов, с точки зрения бизнеса.
+Мне наприсылали вчера крутой фактуры на разборы. Когда продукты классные. Но можно докрутить и продажи полетят вверх.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1303,59 +1232,48 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13075</v>
+        <v>5655</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1606118546845124</v>
+        <v>5.411140583554377</v>
       </c>
       <c r="L17" t="n">
-        <v>6.355510172511481</v>
+        <v>89.70767942470431</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2294455066921606</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1606118546845124</v>
+        <v>5.411140583554377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>23.05.2025 17:05</t>
+          <t>01.01.2025 18:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>**Продвигаем товары с помощью подписок на аккаунт Авито**😎
-Эффективный и бесплатный способ привлечь внимание покупателей: подписки на ваш профиль.
-Как это работает? 
-Когда пользователь подписывается на ваш аккаунт, он автоматически получает уведомления о каждом новом объявлении. Это особенно полезно для продвижения:
-— акционных и временных предложений
-— сезонных или уникальных товаров
-— новинок в ассортименте
-Подписки лучше работают в нишах с умеренным объёмом публикаций. Если вы размещаете сотни объявлений в неделю, пользователи могут начать отписываться из-за частых уведомлений.
-Почему стоит использовать подписки:
-— бесплатные повторные касания с аудиторией
-— рост доверия к вашему профилю
-— дополнительный охват благодаря push-уведомлениям и поведенческим факторам</t>
+          <t>Пишите с комментах, что еще разобрать? Стоит ли открывать в 2025 (ваш вариант….) ?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1364,63 +1282,59 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14916</v>
+        <v>7606</v>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1541968356127648</v>
+        <v>3.615566657901657</v>
       </c>
       <c r="L18" t="n">
-        <v>6.007258345753296</v>
+        <v>84.97687062156162</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1541968356127648</v>
+        <v>3.615566657901657</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20.05.2025 18:13</t>
+          <t>31.03.2025 12:08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>**Как не отвечать на отзыв? 
-**—**Агрессией и пренебрежением. **
- Даже если покупатель неправ — задача не «поставить на место», а помочь разобраться. Грубый тон и обесценивание не только оттолкнут автора отзыва, но и отпугнут будущих покупателей.
-Агрессивный ответ: — Портит лицо бренда, — Отбивает доверие, — Закрывает дверь к повторной покупке.
-Помните: вы отвечаете не одному человеку, а всем, кто это прочтёт. Уважение — это не слабость, а стратегия.
-**Пример:**
-**Отзыв:**
-__"Миксер не работает, не крутит вообще! Деньги на ветер."__ 
-⚡️(Хотя на деле клиент просто не вставил венчики до щелчка)
-**Ответ:**
-Спасибо за ваш отзыв! Очень жаль, что возникли трудности. Мы часто сталкиваемся с похожей ситуацией — когда венчики не вставлены до конца, миксер может не запускаться. Напишите нам, пожалуйста, — мы поможем разобраться и всё настроить. Надеемся, он вас ещё порадует в работе!
-**Отзыв:**
-"Получил брак — одна ножка у стула короче!"
- ⚡️(Проверено — ножки регулируются, их просто не выкрутили)
-**Ответ:**
-Здравствуйте! Спасибо, что сообщили. У этой модели ножки регулируются по высоте — возможно, одну из них просто нужно немного подкрутить. Напишите нам, если потребуется помощь — с радостью подскажем, как сделать всё идеально. Надеемся, стул вам понравится в использовании!</t>
+          <t>Перестанут ли люди покупать обучение?
+Что я вижу как собственник платформы для онлайн образования: взрослое образование (а тем более инфо бизнес) падает. Детское - растет. 
+Вы и сами видите, что на рынке игроки месяцами мучительно собирают народ в анкеты предзаписи, генеря тонну контента во все воронки, а потом также мучительно собирают еще на второе (а иногда и третье) окно продаж.
+Конечно, никто вам не скажет про недобор, про упавшую доходимость, конверсии и общую усталость людей от прогревов и даже от пользы. О солдаутах уже никто не кричит, как раньше. Иногда где-то вскользь проскочит неуверенное «у нас как обычно солд-аут». Но «как обычно» далеко от как обычно по результату. И усилия при продаже курсов увеличились не соизмеримо к прошлым годам. 
+Что могу сказать про себя. Еще в конце прошлого года мы четко понимали, что платформа становится нашим основным фокусом внимания. Это IT проект, где у нас большие амбиции, большие инвестиции и очень много планов: вплоть до автоматизации государственных общеобразовательных школ. 
+Обучение бизнесу  никогда не было нашим основным бизнесом. Мы никогда не жили на прибыль от обучения. Никогда🤷‍♀️. (Миша - реальный предприниматель и поэтому с 20 до 35 лет заработал достаточно, чтобы в принципе уже не работать. Но в 35 только жить и ничего не делать для  предпринимателя очень скучно - да и рановато как то, когда еще полно сил и энергии😂)
+Поэтому почти  все, что приносит школа, мы инвестируем в платформу SoHo LMS. IT очень капиталоемкий бизнес. И очень длинные деньги.
+Поскольку платформа потихоньку растет и встает на ноги, она требует все больше внимания и я думаю в какой то момент мы сосредоточимся только на ней. На IT.
+Недавно в сторис показывала нашу модель продаж в LMS. Она неплохо развита для молодого проекта, но каждый канал продаж от партнерок до выставок надо постоянно улучшать и тратить туда силы, внимание. Когда на доске играют все фигуры - это сильная позиция. Когда развито всего 2 фигуры (2 канала продаж) - это не бизнес )). 
+А что же рынок обучения? Рынку непросто. Многие (мы тоже) тестируют разные гипотезы, меняют маркетинг, пробуют новые воронки и подходы.
+Мне жаль инфо бизнесменов, которые в жирные годы  не инвестировали в реальные бизнесы. А только продавали обучение. Сейчас, я думаю, многие пойдут в товарку. Начнут выпускать свои гели для бровей, косметику, боксы. Уже есть примеры. 
+А вы что думаете? Что дальше будет с рынком обучений?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1429,70 +1343,57 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2699</v>
+        <v>6571</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6298629121896998</v>
+        <v>3.71328564906407</v>
       </c>
       <c r="L19" t="n">
-        <v>5.815055481655154</v>
+        <v>83.44960999563033</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3705075954057058</v>
+        <v>5.935169684979455</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6298629121896998</v>
+        <v>3.71328564906407</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25.05.2025 16:46</t>
+          <t>19.06.2025 18:31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>💙💙💙
-**Аналитика продаж на Ozon: обзор встроенных инструментов
-**
-На Ozon продавцы могут бесплатно отслеживать ключевые метрики: продажи, возвраты, остатки на складах, стоимость товаров и эффективность акций. Всё представлено в виде удобных графиков и отчётов на самой платформе.
-**Графики продаж**
-Позволяют оценить динамику заказов по дням и неделям. Бесплатная версия показывает базовые данные, а подписка Premium (2 990₽/мес, при рейтинге не ниже 4.5) — расширенную аналитику. 
-Минус: возвраты и отмены в графиках не учитываются.
-**Кластеры продаж**
-Показывают, в каких регионах товары продаются лучше. Доступно только с Premium.
-**Анализ акций**
-Раздел «Акции» помогает сравнивать продажи в период распродаж и вне их, оценивать эффективность скидок и объёмы выручки. Статистика доступна бесплатно (по датам до 3 месяцев).
-**Товары в поиске**
-Можно проверить, отображается ли товар в выдаче, и на каких устройствах. Причины отсутствия — ошибки в карточке или отсутствие на складе более месяца.
-**Воронка продаж**
-Отражает изменения оборота магазина за 14 дней. Есть разбивка по неделям.
-**Отчёты для продавцов:**
-— **«Товары»** — список всех позиций с параметрами, ценами, комиссиями.
-— **«Продажи со склада»** — данные об остатках, уценке, хранении, выкупе.
-— **«Заказы»** — информация по FBO, FBS, realFBS: статус, скидки, доставка.
-— **«Возвраты»** — сколько товаров вернули или отправляют обратно.
-— **«Начисления»** — история заказов, возвратов, комиссий и дат.
-— **«Контроль качества»** — показатели, влияющие на рейтинг продавца (жалобы, сроки доставки и др.).
-#гайдпоOzon</t>
+          <t>Насчет пропажи ценных вещей (ювелирка , и сразу 3 штуки) - просто какой-то полтергейст. 
+Но весь год я видимо была 
+ уверена, что конкретно три эти изделия у меня в Москве. Причем уже год я их вроде как не вожу с собой туда сюда, хотя постоянно мотаюсь Москва - Барселона. Но в Барселоне нет желания носить что-то красивое. Логично, что они в Москве? Логично. Но это неточно. Потому что с полной уверенностью я сказать не могу. 
+И вот я , видимо, настолько была уверена, что они в Москве, что не проверяю их наличие тут ни на Новый год, когда мы были в Москве месяц. Ни на Пасху, когда мы тоже были тут. 
+И вот вчера случайно замечаю, что сережек, которые я наконец собралась надеть , нет. И вместе с ними нет и еще двух пар 🥹🥶
+Начинаю восстанавливать в голове события, когда последний раз надевала. Пересмотрела все фотки, весь архив сторис. Не носила год ни одни из трех пар. 
+Да и когда прошел практически год с того момента, очень сложно восстановить события, учитывая что я много летаю. 
+В общем, я в печали. И даже не из-за стоимости. А двое из них были дороги из-за памятных событий в жизни🥺
+У меня уже были такие потери. И в прошлый раз сережки нашлись случайно, когда принесла в химчистку спустя года три пальто. Оп - а они там в кармане оказались при проверке карманов 😂.
+Может, и в этот раз найдутся.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1501,62 +1402,49 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6483</v>
+        <v>8594</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2930741940459664</v>
+        <v>3.304631138003258</v>
       </c>
       <c r="L20" t="n">
-        <v>5.461900874344186</v>
+        <v>80.57866324800233</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.1163602513381429</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2930741940459664</v>
+        <v>3.304631138003258</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18.05.2025 13:41</t>
+          <t>10.06.2025 19:50</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>**Хочешь продавать больше? Учись у конкурентов**
-🤔Многие усложняют: мол, копировать — неэтично. Но бизнес — это не про изобретения, а про умение делать лучше.
-Пример: 
-Facebook скопировал ключевые функции у других. Stories — идея Snapchat. Reels — ответ на TikTok. И что? Facebook остался на плаву и зарабатывает миллиарды.
-На маркетплейсах всё ещё проще:
-— Видны продажи и тренды
-— Показаны цены, отзывы, конкуренты
-— Всё прозрачно — бери и повторяй с улучшениями
-Как копировать правильно? 
-1️⃣Не лезь в перегретые ниши
-2️⃣Выбирай товары с 1–3 конкурентами, особенно на старте
-3️⃣Улучши подачу: карточка, реклама, визуал — обгоняй по качеству, а не по цене
-Не копируешь — сам себе мешаешь.
-Даже крупнейшие компании росли на чужих идеях.
-А маркетплейсы созданы для того, чтобы ты мог использовать аналитику и заходить в перспективные ниши быстрее других.</t>
+          <t>Так, а летний оффер SOHO LMS , который принес нам в платформе **РЕКОРДНУЮ ВЫРУЧКУ за май** в НЕСЕЗОН узнать не хотите? Судя по количеству реакций под кружочком - нет.  
+Или пропустили кружочек? Еще 300 реакций на кружочек и выкладываю вам наш крутейший оффер. Адаптируете и Заберете себе 👌</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1565,66 +1453,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>963</v>
+        <v>4460</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1.453790238836968</v>
+        <v>5.919282511210763</v>
       </c>
       <c r="L21" t="n">
-        <v>5.411176152966958</v>
+        <v>80.13431485572679</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.2242152466367713</v>
       </c>
       <c r="N21" t="n">
-        <v>1.453790238836968</v>
+        <v>5.919282511210763</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>09.05.2025 18:22</t>
+          <t>04.01.2025 12:37</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>💡**Бартер с микроблогерами — бесплатное продвижение в соцсетях, повышение узнаваемости вашего товара и бесплатный отзыв**
-Суть в том, что микроблогер с 1к — 10к подписчиков с вероятностью 90% прорекламирует по бартеру ваш продукт и вам не придется платить за рекламу, а эффективность может быть в разы больше чем у крупного блогера! 
-**Кратко, что нужно делать:**__
-__— Выберите подходящих блогеров
-1. Аудитория: ищите тех, чья аудитория пересекается с вашей ЦА.
-2. Размер:**__ __**микроблогеры — это 1k–10k подписчиков с «залетевшими» видео, вирусным контентом, креативным контентом
-3. Активность:**__ __**ориентируйтесь не на подписчиков, а на вовлечённость (лайки, просмотры, комменты, сторис)
-**— Подготовьте короткое предложение**
-Привет! Меня зовут [Имя], я представляю бренд [название].Мы делаем [кратко про продукт] — и я думаю, это может быть интересно тебе и твоей аудитории. 
-Готовы отправить тебе продукт в подарок, если тебе будет интересно протестировать его и поделиться впечатлениями в своем видео Reels, Tik Tok или YT Shorts! 
-**— Договоритесь на честных условиях**
-Обговорите:
-1. Формат — лучше Reels, чем сторис. При Reels увидят не только подписчики, но и как раз ЦА
-2. Тайминг
-3. Условия**__ __**(что именно вы отправляете, что блогер делает)
-Попросите оставить подробный отзыв с фотографиями.
-**— Отправьте товар красиво**
-Положите в коробку записку, оформите упаковку — это увеличивает шанс, что блогер сделает хороший контент.
-Работали ли вы с блогерами и какой был результат?</t>
+          <t>**Брать ли новичку франшизу: За и Против
+**
+Против:
+1️⃣ Франшизы - это всегда **дорогой вход**. 600К-3 млн надо иметь. Ведь держатель франшизы на этом зарабатывает. (Для сравнения 55% малого бизнеса открывается на суммы от 0 до 100К). 
+2️⃣ А если у вас есть такие деньжищи, то **нафига** вам вообще франшиза? Вы можете открывать что угодно, самостоятельно просчитав и построив продукт. Да, потратите время на обучение. Но оно того стоит, чтобы не зависеть от «хозяина» - держателя франшизы. 
+3️⃣ Франшиза **убивает** для меня саму идею предпринимательства! А предпринимательство это про свободу. Когда автор продукта - это ты, а не Коля, Вася и Маша, которые придумали и сделали за вас продукт. А вы купили набор регламентов. 
+4️⃣ **Зарегулированность** **продукта и продаж**. Очень часто во франшизах вы не можете принимать решения не только по продукту (как проходят занятия в вашей школе, какая вывеска, какой набор учебных материалов и проч), но и по продажам. Стоят ограничения на использования каких-либо каналов продаж или акций. А зачем вам это? Когда вы даже на выручку толком не влияете?..
+За:
+1️⃣ **Бренд**. Иногда он действительно сильный. И помогает генерить поток клиентов. Но только иногда)
+2️⃣ **Набор готовых регламентов**. Для кого-то это плюс (для тех, кто не хочет самостоятельно разбираться в бизнесе) Но опять же для меня это - МИНУС. Я за то, что предприниматель был АВТОРОМ своего продукта. Иначе стирается сама идея предпринимательства. 
+А вы что думаете?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1633,58 +1513,54 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>772</v>
+        <v>8670</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9067357512953367</v>
+        <v>3.079584775086505</v>
       </c>
       <c r="L22" t="n">
-        <v>3.211910879360781</v>
+        <v>75.77625983679253</v>
       </c>
       <c r="M22" t="n">
-        <v>1.295336787564767</v>
+        <v>0.2306805074971165</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9067357512953367</v>
+        <v>3.079584775086505</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>31.05.2025 10:04</t>
+          <t>11.06.2025 15:24</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>👌**Почему продавцы разочаровываются в работе на Wildberries? **
-Многие новички, прошедшие обучение у коучей по торговле на Wildberries, сталкиваются с трудностями при реальной работе на платформе. Согласно исследованию Центра развития предпринимателей PRO Wildberries, __24% таких продавцов недовольны объёмами продаж, а 17% плохо ориентируются в тарифах и штрафах.__
-**Основные проблемы:**
-— **Недостаточная информация о тарифах и логистике:** Коучи часто не раскрывают детали формирования комиссий и логистики, что приводит к неожиданным затратам для продавцов.
-— **Нарушение правил платформы: **Некоторые наставники рекомендуют практики, противоречащие правилам Wildberries,
-— **Завышенные ожидания: **Обучение может создавать иллюзию лёгкого успеха, не учитывая реальные сложности и конкуренцию на платформе.
-**Рекомендации:**
-**— Тщательно изучайте условия работы на Wildberries:** Перед началом продаж ознакомьтесь с тарифами, комиссиями и правилами платформы.
-**— Избегайте сомнительных практик: **Следуйте рекомендациям Wildberries и не прибегайте к методам, которые могут привести к блокировке аккаунта.
-**— Реалистично оценивайте свои возможности:** Учитывайте конкуренцию и возможные трудности, планируя бизнес на маркетплейсе.
-Обучение — важный этап старта, но подходите к нему избирательно. Проверяйте опыт и подход спикера, не верьте обещаниям "заработать миллионы за месяц", и обязательно параллельно изучайте официальные правила самой площадки.</t>
+          <t>**Оффер, который помог нам сделать в мае рекордную выручку (в не сезон). **
+У основной бизнес - это ITплатформа SoHo LMS для онлайн образования. И там очень много клиентов - это **детские онлайн школы**. Для детских школ лето - это не сезон. 
+В мае было очень много лидов от них. Но они все говорили одно и тоже: платформа классная, но мы придем к вам в сентябре, что нам платить за лето?. 
+Любой предприниматель понимает, что «в сентябре» = никогда 🤣, так как минимум 50% лидов отвалится👇
+Какой оффер сконвертировал весь интерес здесь и сейчас и получил нам клиентов в долгую:
+**«оплати сейчас на год вперед со скидкой за то, что вперед + получи лето в подарок» 🎁 **
+И нет, мы не потеряли 25%😉. Нельзя потерять, когда ты выбираешь между нулем (потому что лид до сентября остынет 100 раз) и большим чеком здесь и сейчас.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1693,76 +1569,48 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24724</v>
+        <v>4347</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04853583562530335</v>
+        <v>5.244996549344375</v>
       </c>
       <c r="L23" t="n">
-        <v>2.972922266189907</v>
+        <v>75.54397694374551</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.37083045778698</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04853583562530335</v>
+        <v>5.244996549344375</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04.05.2025 11:43</t>
+          <t>07.02.2025 11:48</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>💙**Как оформить карточку товара для выхода в топ на Ozon в 2025 году?**
-Если твоя карточка не оптимизирована — ни реклама, ни скидки не спасут.
-Вот **__полный гайд__**, как подготовить карточку, которая зарабатывает: 
-1. Заголовок: SEO + выгода
-— В первые 50 символов — ключевые слова (Ozon индексирует заголовки!)
-— Не пиши «лучший», «качественный», «топ» — это не ищут
-Пример: "Спортивная бутылка для воды 750 мл | без BPA | фитнес, поход"
-2. Первое фото — продающее!
-— Не просто «товар на белом фоне»
-— Покажи товар в действии: человек, ситуация, результат
-— Используй инфографику,иконки, надписи (с соблюдением правил Озон) 
-— Добавь УТП на фото: «750 мл • Безопасный пластик • Гарантия 6 мес»
-3. Характеристики — SEO-зона №2
-— Заполняй до 100% полей
-— Используй точные фразы, как в поиске: не «голубой», а «небесно-голубой»
-— Следи за единицами измерения (мл vs литры — индексируются по-разному)
-4. Описание раскрывает:
-— Проблему, которую решает товар.
-— Преимущества
-— Комплектацию
-— Советы по использованию 
-5. Видео
-— Даже 20-секундный ролик увеличивает конверсию на 15–30%
-— Не заморачивайся с качеством — главное: показать в деле
-6. Продвижение 
-— Используй внутреннюю рекламу (Ozon Ads) — особенно в первые 2 недели после запуска
-— Активируй внешний трафик (соцсети, блогеры, контекстная реклама)
-— Веди аналитику: следи за CTR, конверсией, отказами
-#гайдпоOzon</t>
+          <t>Что то тяжело с реакциями... Жадные все на огоньки. Ну ладно, значит не буду выкладывать сюда разбор , пойдет ли баня. Кому интересно, пойдут его в инсте посмотрят. Там люди не жадные 🤣</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1771,54 +1619,48 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1685</v>
+        <v>6227</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4154302670623145</v>
+        <v>3.902360687329372</v>
       </c>
       <c r="L24" t="n">
-        <v>2.439147644655355</v>
+        <v>70.432286325768</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4154302670623145</v>
+        <v>3.902360687329372</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10.05.2025 08:16</t>
+          <t>17.03.2025 10:05</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>**На WB появятся поставщики из ОАЭ **🇦🇪
-Уже в этом месяце компания планирует начать продажи товаров от продавцов из ОАЭ.
-Что нужно знать? 
-Фокус сделают на **электронике**, включая смартфоны и сопутствующие гаджеты, сроками доставки **от 6 дней**, зависеть будет от наличия и «растаможки». 
-Для заказов из-за рубежа Wildberries организовал автоматизированную систему оплаты пошлины. При заказе **свыше 200€ — пошлина автоматически рассчитывается** и включается в итоговую стоимость заказа, при этом размер надбавки прозрачно отображается рядом с ценой товара в информационных целях.
-Переживать стоит только продавцам смартфонов **Samsung, Apple.** Но не сильно, ведь далеко не каждый готов заранее отдать деньги за товар и ждать больше недели.
-#SellerXновости</t>
+          <t>И ещё муж - айтишник, который умудрился совершенствовать техническую базу снова и снова, справляясь с объемом спроса/эквайрингами/платежными системами/перегрузками/логистикой и тд. Многие блогеры отвалились бы на этапе первой продажи, когда все сайты легли)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1827,59 +1669,48 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>669</v>
+        <v>6862</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7473841554559043</v>
+        <v>3.482949577382687</v>
       </c>
       <c r="L25" t="n">
-        <v>2.093206535086011</v>
+        <v>69.41718021815909</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.5829204313611193</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7473841554559043</v>
+        <v>3.482949577382687</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12.05.2025 09:32</t>
+          <t>18.03.2025 12:45</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>**Как быстро собрать первые отзывы? **
-Чтобы карточка могла конкурировать с другими — отзывы это очень важный пункт продвижения
-**Как их получить? **
-— Первые отзывы для новой карточки лучше всего получать через выкупы.
-— Достаточно ~ 5 отзывов, чтобы карточка могла полноценно конкурировать на рынке и быть готовой к продвижению 
-— Отзывы просим  оставить у друзей, родственников, коллег
-**Про что еще не стоит забывать? __
-__**Проверять какие отзывы оставляют клиенты, положительные или отрицательные. Если самый свежий отзыв - отрицательный, нужно срочно его перекрыть. Не через час и не завтра, а сейчас. Иначе неизбежны просадки в продажах.
-Стимулируйте клиентов оставлять отзывы. Вкладывайте в упаковку небольшую карточку с текстом вроде: «Будем благодарны за ваш отзыв!» 
-Это действительно работает — поверьте, такой простой шаг сильно влияет на результат! 
-Не нужно тратиться на дорогую полиграфию — подойдёт обычная визитка или простая бумажка👌
-📌И ещё: отзывы напрямую формируют рейтинг вашей карточки. Если он падает ниже 4.5 — вы автоматически проигрываете конкурентам!</t>
+          <t>Про зумеров ,реально приходят люди с нулевыми навыками . Не могут просто посчитать кассу без ошибок, не могут заполнить таблицу , не помнят кого обслуживали несколько часов назад . Мне 41 год и я реально умнее их,хотя они уже должны меня учить ,хотя бы в знании программ и т.д. Но самое страшное,что они ничего не хотят и им ничего не интересно</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1888,62 +1719,49 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>698</v>
+        <v>6360</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7163323782234957</v>
+        <v>3.30188679245283</v>
       </c>
       <c r="L26" t="n">
-        <v>2.0725530416154</v>
+        <v>68.96059686780062</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3.616352201257861</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7163323782234957</v>
+        <v>3.30188679245283</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>08.05.2025 17:44</t>
+          <t>28.02.2025 22:16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>**Продажа сезонного товара на маркетплейсах - риск?**☂️
-**Определенно — да!**
-Но продажа сезонных товаров дает возможность хорошо заработать
-**В чем их отличие от продукции круглогодичного спроса? **
-— хорошая окупаемость 
-— стремительный рост прибыли(люди покупают сезонные товары в больших количествах и по высокой цене)
-— есть возможность продать дополнительные товары, тем самым увеличить сумму в чеке (например, вместе с огородными саженцами можно легко продать удобрения для них)
-**А какие риски? **
-— невостребованность вне сезона → "заморозка" товара на складе
-— сезон может сместиться (погода, экономические факторы)
-— сложность в прогнозировании спроса, можно закупить больше, чем продашь
-💡Вывод:
- Чтобы продавать сезонные товары, нужен хороший анализ, для неопытных селлеров — лучше закупить небольшое количество и тестировать 
-Как вы относитесь к сезонным товарам? Торгуете ли ими?
-#SellerXразбор</t>
+          <t>В комментариях выяснение отношений и разборки не хуже, чем в Белом доме сегодня))). Поэтому на сегодня комментарии закрыты❌. Всем надо остыть и переварить новостную повестку.
+__Теперь я понимаю, почему во всех новостных каналах закрыты комменты😂__</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1952,19 +1770,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>703</v>
+        <v>7052</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1973,45 +1791,30 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5689900426742532</v>
+        <v>3.360748723766307</v>
       </c>
       <c r="L27" t="n">
-        <v>2.036592414546079</v>
+        <v>67.71549660626746</v>
       </c>
       <c r="M27" t="n">
-        <v>1.422475106685633</v>
+        <v>0.1418037436188316</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5689900426742532</v>
+        <v>3.360748723766307</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>09.05.2025 16:37</t>
+          <t>15.05.2025 13:01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>**Мошенничество на маркетплейсах. Хитрые и не всегда очевидные схемы.**
-Мы привыкли думать, что жертвами становятся только покупатели — но продавцы, особенно начинающие,  тоже страдают.
-Расскажем про несколько схем, которые до сих пор успешно работают: 
-**—** **Массовые жалобы и странные отзывы**
-Вы только выложили товар на маркетплейс, а уже появляются жалобы: "не получил товар", "пришёл брак".
-Затем — волна странных отзывов. Заглядываете в профиль автора — за день он оставил 15 отзывов на аналогичные товары у конкурентов.
-Это не клиенты, а “чистильщики” — так недобросовестные конкуренты убирают новичков из ниши.
-**— Подставные покупатели и “возврат с сюрпризом”**
-Один из самых старых трюков. Клиент оформляет заказ, потом оформляет возврат — но вместо товара в коробке может оказаться совсем не то, или вообще ничего.
-Если вы не запаковали товар как следует, не использовали пломбы или не зафиксировали упаковку на видео — вы теряете и товар, и деньги. 
-Особенно опасно с техникой, смартфонами и дорогой косметикой — такие вещи просто «улетают».
-**— «Служба поддержки» маркетплейса**
-Звонит человек и говорит, что у вас нарушение, надо срочно подтвердить данные через ссылку — иначе блокировка или штраф.
-Если вы переходите по ссылке и вводите логин — доступ к кабинету уходит к мошенникам.
-**__Как защититься?__**
-— Фиксируйте упаковку на видео, особенно при возвратах.
-— Не переходите по подозрительным ссылкам.
-— Не вводите логины нигде, кроме официального сайта.
-— Следите за активностью товара.</t>
+          <t>Алина, добрый вечер!
+Оффер, который мы тестировали: после покупки тура предлагали комфортабельный трансфер в аэропорт со скидкой 50%.
+Что касается ценообразования — моя помощница провела опрос среди гидов, и я поняла, что стартовая цена тура была завышена. Тогда я сократила длительность тура и установила цену, которая выглядела конкурентоспособной и психологически комфортной. А прежнюю, более высокую стоимость оставила как промежуточную опцию.
+В результате та цена, которая изначально казалась завышенной, в новой системе выглядела «серединной» — и именно её чаще всего выбирали.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2020,89 +1823,50 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>662</v>
+        <v>5212</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6042296072507553</v>
+        <v>3.818112049117421</v>
       </c>
       <c r="L28" t="n">
-        <v>1.678732052033731</v>
+        <v>67.55849927805301</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>5.564082885648503</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6042296072507553</v>
+        <v>3.818112049117421</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10.05.2025 10:20</t>
+          <t>10.01.2025 16:16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>**Где запускать товар в 2025 году: Wildberries, Озон, Яндекс Маркет или Авито?**
-**1. Wildberries** 💜
-Подходит: для массового сегмента, одежды, косметики, товаров для дома, детских товаров.
-Плюсы:
- • Огромный трафик (самый посещаемый маркетплейс в РФ).
- • Легко стартовать без ИП.
- • Хорошо "раскручивает" карточки при активных продажах.
-Минусы:
- • Частые штрафы и сложные правила.
- • Качество аудитории – часто выбирают "дешевле".
-➡️Идеально, если у тебя недорогой товар с широкой аудиторией.
-**2. Ozon **💙
-Подходит: для электроники, книг, спортивных товаров, техники, аксессуаров, B2B-товаров.
-Плюсы:
- • Прозрачный интерфейс, удобная аналитика.
- • Активная поддержка селлеров.
- • Хорошая платёжеспособность аудитории.
-Минусы:
- • Выше конкуренция.
- • Требует грамотной настройки логистики и рекламы.
-➡️Хорош для тех, кто готов вникать в аналитику и строить системную работу.
-**Яндекс Маркет**💛
-Подходит: для техники, мебели, товаров премиум-класса, товаров с уникальными характеристиками.
-Плюсы:
- • Интеграция с Яндекс-сервисами, удобная реклама.
- • Осознанные покупатели.
- • Продвинутая аналитика.
-Минусы:
- • Старт сложнее, чем на ВБ или Ozon.
- • Требует ИП/ООО и точной логистики.
-➡️Подойдёт тем, у кого качественный или дорогой товар, и кто хочет делать бренд.
-**4. Авито**❇️
-Подходит: для крупногабаритных товаров, B2B, мебели, услуг, редких ниш.
-Плюсы:
- • Можно продавать без оформления бизнеса.
- • Живое общение с клиентами.
- • Возможность локальных продаж.
-Минусы:
- • Нет полноценной логистики.
- • Много ручной работы.
- • Больше рисков по безопасности.
-➡️Хорош как тестовая площадка, или если хочешь работать без маркетплейсной логистики.</t>
+          <t>Вот он ☝️
+Так они и делают! Главный клиент - это отель! Украшение ресторанов, зон отдыха, ресепшен. Продажи гостям в розницу - это капля в море. 
+Я давно топлю за то, чтоб малый бизнес БОЛЬШЕ смотрел в сторону B2B, а не B2C! Там выше чеки и больше бизнеса)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2111,65 +1875,53 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>677</v>
+        <v>8591</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4431314623338257</v>
+        <v>2.781981143056687</v>
       </c>
       <c r="L29" t="n">
-        <v>1.252417967086647</v>
+        <v>67.19292799503721</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.1164008846467233</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4431314623338257</v>
+        <v>2.781981143056687</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>06.05.2025 14:55</t>
+          <t>23.01.2025 14:21</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>🍏**X5 Retail Group зашел на Ozon — и это меняет правила игры**
-Это не просто партнерство. Это сигнал: ритейл нового поколения наступает.
-Маркетплейсы идут туда, где вращаются деньги — а они сегодня в FMCG.
-И вот он, первый серьёзный шаг: X5 Retail Group с брендами «Пятёрочка», «Перекрёсток» и «Чижик» заходит на витрину Ozon Fresh с 10 000 наименований. 
-**Коротко о главном:**
-— Доставка за 30–45 минут прямо из дарксторов X5
-— Отдельная витрина в Ozon Fresh: СТМ, готовая еда, повседневные товары
-— Пока это витрина. В будущем — возможна глубокая интеграция: самовывоз, объединение логистики и т.д.
-**Что всё это значит для селлеров?** 
-— **Маркетплейсы чётко показали: еда = трафик.**
-FMCG приносит высокий поток пользователей. Да, средний чек ниже, но частота покупок — кратно выше. А значит, это__ стабильный приток клиентов, которые могут купить и ваш товар заодно.__
-— **Увеличение трафика и повторных визитов
-**Продукты покупают часто. Это создаёт __стабильный трафик, __который можно монетизировать: рядом с колбасой клиент __увидит и ваш товар — если вы работаете с правильной рекламной настройкой.__
-— **Скорость и локальная доставка — новые стандарты
-**X5 даёт Ozon доступ к своей инфраструктуре дарксторов, а это доставка за 30–45 минут. Клиенты привыкают к скорости. __Продавцам придётся подстраиваться — ускорять логистику и адаптировать процессы.__
-— **Ozon меняется: из витрины — в экосистему
-**Платформа превращается в полноценную повседневную среду: покупки, еда, быстрая доставка, удобство — всё в одном. __Это усиливает конкуренцию и создаёт новые форматы взаимодействия с покупателями.
-__#SellerXНовости</t>
+          <t>Нет никакого «выстрелил»! Есть попал или не попал в микро и макро тренды. 
+1. **Pusy**. Микротренд на широкие брови и укладку бровей. Настолько четко вписался в тренд, что многие даже думают, что Pusy этот тренд создал. Но нет. Они просто шикарно его использовали. 
+2.** «Так и ходи»**. Микротренд на кудрявый метод. 
+3.** «Вкусвилл».** Долгосрочный макро тренд на ЗОЖ и ПП
+4**. «Синергетик». **Долгосрочный макро тренд на ЭКО.
+Это никакая не «удача». И не «повезло». Это умение оценивать и попадать в тренды.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2178,57 +1930,50 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>735</v>
+        <v>7387</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4081632653061225</v>
+        <v>3.127115202382564</v>
       </c>
       <c r="L30" t="n">
-        <v>1.228898970654467</v>
+        <v>66.81820559732979</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.2707459049681874</v>
       </c>
       <c r="N30" t="n">
-        <v>0.4081632653061225</v>
+        <v>3.127115202382564</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05.05.2025 20:35</t>
+          <t>28.02.2025 19:12</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>📲**Что ждёт продавцов на Маркете в 2025 году: новые фокусные категории и больше возможностей для роста бренда**
-**Новые фокусные категории: **
-Статус «фокусных» сохранят категории «Одежда и обувь» и «Товары для дома». К ним добавятся «Электроника и бытовая техника» и «Стройка  ремонт».
-Теперь товары-новинки из категории «Электроника и бытовая техника» получают дополнительные преимущества:
-— улучшенное ранжирование в поиске;
-— увеличенные скидки;
-— автоматическое добавление в акции.
-А ещё продавцы смогут запускать предзаказы на любые товары, как это уже реализовано для новых смартфонов Samsung.
-⚠️Как обещали разработчики Я.Маркета — уже добавили новую функцию «отправление пуш уведомления покупателю». Уведомление ведет прямо в карточку товара, в категорию или на страницу акции.
-#SellerXНовости</t>
+          <t>**«Трамп выгнал Зеленского из белого дома»**
+Так пишут некоторые телеграм каналы. 
+Следили за ходом переговоров? Про костюм было смешно и неожиданно, когда Трамп спросил: а у вас вообще есть костюм?..</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2237,62 +1982,57 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>756</v>
+        <v>7266</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2645502645502645</v>
+        <v>3.014037985136251</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8140789983151161</v>
+        <v>66.58581444838637</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.78915496834572</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2645502645502645</v>
+        <v>3.014037985136251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04.05.2025 15:01</t>
+          <t>04.04.2025 12:26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>😎**5 ниш, которые растут на Avito весной 2025 — данные и выводы**
-По данным Avito Pro и собственной аналитике
-— Электросамокаты (б/у)
-+63% запросов за март-апрель
-Средний чек — 22 000 ₽
-— Раскладные диваны 
-Конкуренция ниже, чем в IKEA-подобных
-— Уценённая техника
-Телевизоры, мониторы, пылесосы «после ремонта»
-Запросы +40%, особенно с фразами «почти новый» или «витринный»
-— Колёса и диски (авто)
-Рост сезонного спроса (апрель–июнь)
-— Товары из закрывшихся магазинов
-После банкротств → массовый сброс
-Отличный канал закупа и перепродажи</t>
+          <t>**Вчера мне пришлось удалить рилс…
+**
+Потому что подписчики заподозрили меня в рекламе 
+Последний раз меня подозревали в рекламе прививок в 2020 году, когда я одна из первых вколола себе 2 спутника 😂
+Наверное, тогда мне заплатил институт Гамалея?😂
+Вчера я сделала рилс о том, что клиент выбирает не только цену (действительно можно заморочиться и найти цветы дешевле и даже наверное лучше, чем на агрегаторе), но для меня агрегатор это про комфорт. 
+Там уже привязана карта, там удобные слоты доставки, тут же предложат открытку, поле текста для подписи, пришлют фотку букета, перенесут время или отменят если что и проч. 
+Ценность и комфорта и времени, короче. 
+И это сочли не рекламой курса “Продукт на миллион” (урок «ценности продукта»), что было бы логично😅, а рекламой конкретного агрегатора 🤦‍♀️. Чего я, разумеется, перенести не могла и удалила рилс 🫠. Я вообще плохо переношу несправедливость. 
+Такие дела. Неприятненько. Но ладно.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2301,68 +2041,49 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>573</v>
+        <v>5635</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1745200698080279</v>
+        <v>3.850931677018633</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4347459819255465</v>
+        <v>65.91189298571533</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.709849157054126</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1745200698080279</v>
+        <v>3.850931677018633</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>07.05.2025 21:54</t>
+          <t>05.03.2025 21:56</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>**Что такое Автокампания на Wildberries?**
-Автокампания (АРК) на Wildberries 💜— это автоматическая рекламная кампания, которую маркетплейс запускает и управляет самостоятельно на основе ваших параметров.
-Продавцу нужно: 
-— выбрать товары
-— задать максимальный бюджет.
-В отличие от ручной настройки, АРК делает всё за вас:
-— Автоматически подбирает товары для продвижения;
-— Использует данные Wildberries об интересах и поведении покупателей;
-— Показывает рекламу в карточках товаров, в поиске и в рекомендациях.
-Плюсы:
-— Удобно для новичков;
-— Можно быстро запустить рекламу без глубоких знаний;
-— Повышает видимость товаров с потенциалом.
-Минусы:
-— Меньше контроля над ставками и продвижением;
-— Иногда система выбирает не те товары, которые вы бы продвигали вручную;
-— Может тратить бюджет неэффективно, особенно без анализа.
-Когда использовать:
-— Если вы только начинаете и не знаете, как настраивать рекламу;
-— Чтобы протестировать спрос на новые товары;
-— Для дополнительного трафика без сложных настроек</t>
+          <t>Завтра в 10.00 запишу супер важный подкаст (причем только сюда, в телегу, больше нигде не будет этого). 
+**Одно общее условие, которое должно быть в выбранном вами бизнесе, если вы хотите запускать что то в 2025 году.**</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2371,63 +2092,54 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>666</v>
+        <v>7672</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1501501501501502</v>
+        <v>2.437434827945777</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4190855318997925</v>
+        <v>55.40866413417509</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.173096976016684</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1501501501501502</v>
+        <v>2.437434827945777</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>05.05.2025 18:13</t>
+          <t>04.02.2025 13:27</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>**Почему 80% новичков уходят с маркетплейсов в течение 6 месяцев?
-**Потому что маркетплейсы — это не кнопка «деньги», а полноценный бизнес со своими законами. 
-Ниже — 5 причин, почему новички сдаются 👇
-1. Ожидание vs. реальность
-Миф: «Загрузил товар — пошли продажи».
-Реальность: Твой товар в каталоге среди 10 000 других. Чтобы выйти в топ, нужны отзывы, продажи, SEO, качественная карточка и продвижение.
-2. Ошибки в юнит-экономике
-Купил за 300 ₽, продаёт за 600 ₽. Думает — «300 прибыли».
-А комиссия? Логистика? Возвраты? Хранение? Упаковка? Реклама? 
-3. Отсутствие системы
-Делают все «на глаз» — от упаковки до запуска. Начинают без плана, анализа конкурентов, проработки ниши.
-4. Паника и страх потерь
-Товар не продаётся 2 недели — селлер выключает карточку и говорит: «не работает», вместо доработки.
-5. Отказ от обучения
-Не хотят читать гайды, учиться у опытных, инвестировать в аналитику.
-Не смотрят даже бесплатные видео-обучения на YouTube, не говоря о платных курсах.</t>
+          <t>Удивительно, насколько большой бизнес не стесняется постоянно сомневаться в своем продукте 
+А маленький предприниматель горд и несокрушим в мысли, что его продукт плохим/неактуальным/не рыночным быть не может 😅
+И даже мысли не допускает, что он может быть невнятно сформулирован, продавать не те ценности, отстать от рынка, быть плохо упакованным….
+А почему мало продаж тогда?  Да почему угодно! Но только не потому что в продукте ошибки. 
+И тут кроется глубинная связь мелких предпринимателей, где я = мой продукт. А я плохим/неактуальным/невостребованным быть не могу. 
+**Отсюда и плохие отзывы воспринимаются как личное оскорбление. **И продукт не меняется годами. И даже мыслей о том, что продукт требует редакции не возникает. Продукт - это же я. 
+Ноль отчуждаемости. Поэтому 10 лет барахтаемся на одном и том же уровне, где бизнес это выживание, а не драйв. Поэтому в своем бизнесе 80К как в найме. Потому что «мой продукт плохим быть не может»!</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2436,36 +2148,7213 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>681</v>
+        <v>5972</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3.014065639651708</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>53.59641774646099</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.3348961821835231</v>
       </c>
       <c r="N34" t="n">
+        <v>3.014065639651708</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>28.02.2025 21:12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>⚡️ Вообще, конечно, шок от тона переговоров. Повышенные тона. Дерзость. Переход на личности и драматичный финал. 
+Наверное, это самые эпатажные переговоры последних лет. В соц сетях уже поехали рилсы и мемы</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7260</v>
+      </c>
+      <c r="E35" t="n">
+        <v>170</v>
+      </c>
+      <c r="F35" t="n">
+        <v>170</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>170</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.506887052341598</v>
+      </c>
+      <c r="L35" t="n">
+        <v>53.40222276143424</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6887052341597797</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.506887052341598</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>17.03.2025 10:06</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Да! Компетенции мужа - это 💯 ресурс!
+Как мне нравится, что вы уже сами видите и верно оцениваете ресурсы предприниматкля, которые легли в продукт 🤌☝️🔥</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>6676</v>
+      </c>
+      <c r="E36" t="n">
+        <v>175</v>
+      </c>
+      <c r="F36" t="n">
+        <v>175</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>175</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.68124625524266</v>
+      </c>
+      <c r="L36" t="n">
+        <v>51.95319531120052</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.2995805871779509</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.68124625524266</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>12.06.2025 17:36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Да, оффер отличный.
+Если присмотреться, то это Eroski - СТМ магазина (собственная тороговая марка). Не закуп. 
+То есть они отлично знают себестоимость и какую скидку можно дать. 
+А оффер решает все свои основные задачи:
+- увеличение позиций в чеке
+- увеличение среднего чека 
+- управление  остатками (скорее всего)
+И решает явно отлично! Потому что Миша сначала хотел брать 4😂. И не взял только потому, что через 2 дня нам в Москву ) и незачем забивать заморозку 😜</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>5173</v>
+      </c>
+      <c r="E37" t="n">
+        <v>166</v>
+      </c>
+      <c r="F37" t="n">
+        <v>166</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>166</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.324956504929441</v>
+      </c>
+      <c r="L37" t="n">
+        <v>51.68596537672813</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.3866228494104001</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.324956504929441</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>26.06.2025 16:13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Набрали. Рассказываю. 
+__Было__: 2 недели поддержки в чате после окончания курса (на тарифе с основательницей)
+__Стало__: после окончания курса 3 видеовстречи в течении года по любым вопросам сна ребенка (на тарифе с консультантами)
+➕ год звучит весомее. Плюс ощущение, что купил год помощи по цене курса
+➕ видео встречи дают ощущение большей включенности / пользы, чем поддержка в чате
+➕ по статистике годовым наполнением пользуется от силы 30% клиентов. Остальные забывают, меняются обстоятельства, дети растут и проблемы со сном уходят сами собой …</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>5077</v>
+      </c>
+      <c r="E38" t="n">
+        <v>135</v>
+      </c>
+      <c r="F38" t="n">
+        <v>135</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>135</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>17</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.052984045696277</v>
+      </c>
+      <c r="L38" t="n">
+        <v>51.10701983053739</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.348434114634627</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.052984045696277</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>01.01.2025 18:34</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Очень классный разбор ,спасибо)! Хотелось бы ,чтобы разобрали салон красоты или студию маникюра</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>7558</v>
+      </c>
+      <c r="E39" t="n">
+        <v>174</v>
+      </c>
+      <c r="F39" t="n">
+        <v>174</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>174</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.341889388727177</v>
+      </c>
+      <c r="L39" t="n">
+        <v>50.11064615215911</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.341889388727177</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>03.06.2025 09:33</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>**Ошибка почти всех сложных услуг:**
+Не иметь БАЗОВОГО ЦЕНОВОГО ОРИЕНТИРА!
+Вот представьте: вам предстоит ремонт в квартире, зашли вы на сайт дизайнера, который вам понравился красотой своих интерьеров, а там, чтобы узнать цену проекта, вам предлагается ввести: 
+- __что за объект: дом, дача, квартира
+- какая высота потолков
+- нужен/не нужен план электрики
+- сколько квадратов
+- нужен/не нужен план потолков
+- нужен/не нужен авторский надзор
+- и проч…__
+**А вам для начала просто хочется понять: вы вообще потянете именно этого специалиста? Или это вообще не ваш ценовой сегмент и надо искать дизайнера попроще?**
+Просто за секунду мозг должен понять: мне подходит по цене или нет. И все!
+Если этого за секунду понять нельзя, клиент скипнет ваш сайт/профиль и пойдет искать туда, где он сразу поймет: «потяну/не потяну». 
+Для этого у любой сложной услуги должны быть БАЗОВЫЕ ЦЕНОВЫЕ ОРИЕНТИРЫ. Или базовый тариф. Называйте как угодно. Что-то, что сразу даст понять клиенту «отлично! потяну! иду рассчитывать точную цену». 
+И вот таких ~~мелких~~ (на самом деле ни разу не мелких) ошибок в ценообразовании у вас миллион. 
+И каждая сокращает количество заказов на 5-10-20% 
+Идите один раз настроить  ценообразование от и до. Спецкурс по ценам и офферам  доступен с 10 июня. 
+Там будет и ценообразование сложных услуг. 
+И цены для разных сегментов ЦА: богатым, средним, бедным
+И расчет эффекта офферов
+И ценовые приемы продаж дорого
+И управление скоростью продаж через цену. 
+И куча всего еще 👇
+[Смотреть программу](https://soho.mba/sc-offers?promoCode=PAO5000)
+https://soho.mba/sc-offers?promoCode=PAO5000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>5013</v>
+      </c>
+      <c r="E40" t="n">
+        <v>99</v>
+      </c>
+      <c r="F40" t="n">
+        <v>99</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>99</v>
+      </c>
+      <c r="I40" t="n">
+        <v>12</v>
+      </c>
+      <c r="J40" t="n">
+        <v>27</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.752842609216038</v>
+      </c>
+      <c r="L40" t="n">
+        <v>49.60443611936154</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5.385996409335728</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.752842609216038</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>16.03.2025 17:49</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Вообще европейская миграционная политика - интересный вопрос. 
+Население стареет, вымирает. Детей заводить дорого. Плюс повестка. Плюс ценности «жить для себя», куда дети не очень вписываются. Причин того, что рождаемость падает (1.3 ребенка на 1 женщину), много. 
+Понятно, что экономике нужны рабочие руки. Кто то должен работать. Особенно учитывая, что Европа «оплачивает» сейчас своей экономикой демократические ценности. 
+Поэтому во многих странах упростился процесс получения гражданства или вида на жительство. 
+Но Германия прям сильно впереди всех в этом.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>7673</v>
+      </c>
+      <c r="E41" t="n">
+        <v>104</v>
+      </c>
+      <c r="F41" t="n">
+        <v>104</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>104</v>
+      </c>
+      <c r="I41" t="n">
+        <v>55</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.111299361397107</v>
+      </c>
+      <c r="L41" t="n">
+        <v>49.54025246020623</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.3909813632216864</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.111299361397107</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>17.03.2025 11:53</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Согласна на 💯. А то все про Личный бренд, да про прогревы. А вот чисто бизнесовые штуки такие как тип спроса, тренды, потреб цикл, ресурсы никто не анализирует. 
+Алина, завтра ждем копии этого разбора у всех «маркетологов страны»😂</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>6838</v>
+      </c>
+      <c r="E42" t="n">
+        <v>166</v>
+      </c>
+      <c r="F42" t="n">
+        <v>166</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>166</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.500731207955543</v>
+      </c>
+      <c r="L42" t="n">
+        <v>49.34671755155395</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.1462415911085113</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.500731207955543</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>29.06.2025 15:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Итак, мое главное возражение в этом оффере:
+1️⃣ зачем мне замораживать нехилые деньги  у них «под 7%», если они могут приносить бОльшую доходность?.. (оффер на богатых, а богатые обычно знают, как, да и не только богатые. Фин грамотность сейчас вроде неплохо продвинулась в массы) 
+2️⃣ скидка 7% смотрится откровенно сиротской и бессмысленной. Аудитория явно богатая - для нее это тем более погоды не сделает. А деньги предлагается «хранить» в косметологии, а не на банковском депозите хотя бы))))
+3️⃣ Невозможноть  выбора конкретных «подарочных» процедур. Сама по себе идея классная, но хотелось бы получить в подарок то, что нужно именно мне (пускай в пределах определенного ценника)
+Из плюсов: выгода показана не только в %, но и в деньгах. Это хорошо!</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>6036</v>
+      </c>
+      <c r="E43" t="n">
+        <v>125</v>
+      </c>
+      <c r="F43" t="n">
+        <v>125</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>125</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.319416832339298</v>
+      </c>
+      <c r="L43" t="n">
+        <v>42.84327886096429</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.9940357852882703</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.319416832339298</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>26.06.2025 16:38</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>А завтра еще расскажу про офигенные офферы для отеля, для стоматологии, невролога и производства керамики. 
+Все эти бизнесы и многие другие уже прошли спецкурс. И написали кучу благодарностей и отзывов. Отзывы все тоже завтра 😍
+И это наверное спецкурс с рекордным количеством участников с B2B бизнесами. Это очень приятно!</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5791</v>
+      </c>
+      <c r="E44" t="n">
+        <v>139</v>
+      </c>
+      <c r="F44" t="n">
+        <v>139</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>139</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.452080815057848</v>
+      </c>
+      <c r="L44" t="n">
+        <v>41.80152172485978</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1726817475392851</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.452080815057848</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>11.05.2025 13:37</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Они пришли узнать как правильно составить оффер😂</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>5390</v>
+      </c>
+      <c r="E45" t="n">
+        <v>138</v>
+      </c>
+      <c r="F45" t="n">
+        <v>138</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>138</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.597402597402597</v>
+      </c>
+      <c r="L45" t="n">
+        <v>41.30307534390052</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.597402597402597</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>21.04.2025 14:10</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Компании 16 лет. Выручка 1 млн в мес. 
+Это много или мало?
+Это мало 😭. Потому что объем рынка, на котором они работают 30 млрд р. Это мытье окон в Москве. И это только в рознице. 
+Если добавить сюда еще B2B (коммерческую недвижимость), то потенциальный объем рынка 150 млрд!
+То есть остаться на уровне 1 млн/мес на этом рынке за 16 лет можно было только, если совсем нет никакой модели продаж 😭
+И вот за это очень обидно. Когда взрослые бизнесы с большим потенциалом копошатся на уровне новичков , потому что НЕ ПОСТРОИЛИ МОДЕЛЬ ПРОДАЖ. 
+Основные вещи которые надо сделать СРОЧНО:
+1. выйти в **B2B** обязательно. Там средний чек 25К. А в B2C - 5К. Но b2B надо строить. Это хорошее КП + оффер + цепочка дожатия
+2. **Оффер** для B2C. Например, «кто закажет мытье окон до конца недели, покрытие антидождь в подарок». Сейчас офера нет вообще 🙈. Поэтому и выручка 1 млн в мес. А потенциал на 17 млн. 
+3. Из **каналов** только сарафан. А надо проработать: ВСЕ. Локационные, партнерки, контекст и таргет (так как есть сезонный горячий спрос)
+Сделать своб модель продаж лучше с преподавателем на [Спросе.](https://soho.mba/course/sm?promoCode=SM17SALE50#paket) Потому что каждый элемент модели продаж нужно сделать ТОЧНО И ПРАВИЛЬНО. А партнерки, B2B, геолокационные каналы продаж, контекст, инкубаторы и проч очень тяжело построить самому. Там нужен опыт. 
+А у преподавателей есть экспертиза по всем нишам и рынкам. И опыт: как это все посчитать и собрать. 
+**У нас осталось 50 мест со скидкой 50К 👇
+****https://soho.mba/course/sm?promoCode=SM17SALE50#paket**</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>5454</v>
+      </c>
+      <c r="E46" t="n">
+        <v>68</v>
+      </c>
+      <c r="F46" t="n">
+        <v>68</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>68</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>28</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.906857352401907</v>
+      </c>
+      <c r="L46" t="n">
+        <v>39.15028065209714</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5.133846718005134</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.906857352401907</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>23.05.2025 14:58</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Кстати, про офферы, у курса Спрос есть побочка - если мне продавец говорит, что на поездку в лагерь за двоих детей (и даже за 4 потому что у меня еще подруга) "скидок у нас никаких нет" меня это прям подбешивает :) Я прям ей чуть КАПСОМ не ору - женщина, шо ж вы делаете? возьмите в руки калькулятор, у вас же регулярный спрос на длинном потреб цикле! 
+но, видимо, цена/качество такие, что продаст и так по своим постояшкам.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>6083</v>
+      </c>
+      <c r="E47" t="n">
+        <v>110</v>
+      </c>
+      <c r="F47" t="n">
+        <v>110</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>110</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.071346375143843</v>
+      </c>
+      <c r="L47" t="n">
+        <v>38.34396936466651</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.6575702778234425</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.071346375143843</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>11.04.2025 17:38</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Так это же прекрасно!!! Если в таком «клоповнике» есть клиенты на 25К за час и надо записываться заранее, это значит что если сделать продукт / контент лучше, то вообще отбоя не будет. **Проблемность конкурентов** - важный отдельный модуль на Продукте 🔥. Вы изучаете «минусы» конкурентов и предусматриваете их в своих сценариях продукта.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6078</v>
+      </c>
+      <c r="E48" t="n">
+        <v>110</v>
+      </c>
+      <c r="F48" t="n">
+        <v>110</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>110</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.023692003948667</v>
+      </c>
+      <c r="L48" t="n">
+        <v>37.30639606337446</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6581112207963146</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.023692003948667</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>07.04.2025 12:17</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Я люблю альфа парентинг за это. Самая близкая мне теория воспитания - это теория привязанности Ньюфелда</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>7401</v>
+      </c>
+      <c r="E49" t="n">
+        <v>56</v>
+      </c>
+      <c r="F49" t="n">
+        <v>56</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>56</v>
+      </c>
+      <c r="I49" t="n">
+        <v>22</v>
+      </c>
+      <c r="J49" t="n">
+        <v>23</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.364680448588029</v>
+      </c>
+      <c r="L49" t="n">
+        <v>36.25869249460291</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.107688150249966</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.364680448588029</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>24.01.2025 12:59</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Продуктологи, вам задачка)
+Это профиль реального человека (Татьяна). Выделенные навыки и ресурсы Тани.
+**Какой продукт из этих ресурсов можно собрать? **
+Важно: учитывая тренды!!!
+**Навыки**
++ опыт в настольных играх и развивающих игрушках
++ упорядочивать пространство и быт
++ планировать поездки, праздники, мероприятия
++ оформлять интерьер для тематических вечеринок
++ изучать и выбирать книги
++ любовь и навык работ по дереву 
+**Ресурсы**
++ автомобиль Ford
++ циркулярно-пильный станок
++ цветной принтер
++ шлифмашинка
++ пилорама рядом с посёлком
++ компрессор для покраски
++ палатка, спальник
++ брат с художественным образованием по обработке дерева
+А я потом поделюсь, что на самом деле запустила Таня и почему )</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>7142</v>
+      </c>
+      <c r="E50" t="n">
+        <v>93</v>
+      </c>
+      <c r="F50" t="n">
+        <v>93</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>93</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.666199943993279</v>
+      </c>
+      <c r="L50" t="n">
+        <v>35.72270633660111</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.2800336040324839</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.666199943993279</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10.06.2025 12:01</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Тоже не по теме, но я под впечатлением.  Давно вас смотрю, обучаюсь и наконец-то решилась стать на путь маркетолога. Готовлю первый кейс. Зашла на профи.ру изучить конкурентов для клиента и заодно своих. Это мрак. Ладно, преподаватели не умеют продавать, но маркетологи тоже! Для меня это шок. Как они собрались клиентов другим приводить, если у самих мешанина в описании, толком нет офферов нормальных и т д? Всем на спрос😂
+Даже не так страшно теперь,меньше конкурентов будет</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4696</v>
+      </c>
+      <c r="E51" t="n">
+        <v>107</v>
+      </c>
+      <c r="F51" t="n">
+        <v>107</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>107</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.406303236797275</v>
+      </c>
+      <c r="L51" t="n">
+        <v>34.66831146861081</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.4258943781942078</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.406303236797275</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>25.04.2025 15:10</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>**Давно не было рубрики вопрос/ответ. **По-моему, последний раз она была прошлым летом 🙈
+Пишите в комментарии свои вопросы ПО ПРОДАЖАМ👇 что у вас не продается, где продаете, какие инструменты/каналы используете. 
+Завтра буду весь день отвечать вам.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4744</v>
+      </c>
+      <c r="E52" t="n">
+        <v>66</v>
+      </c>
+      <c r="F52" t="n">
+        <v>66</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>66</v>
+      </c>
+      <c r="I52" t="n">
+        <v>35</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.213322091062395</v>
+      </c>
+      <c r="L52" t="n">
+        <v>34.65154103191272</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.8431703204047217</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.213322091062395</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>26.02.2025 11:57</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>**Мы сделали такооооооое…🤌🔥 сегодня в 17.00 выложу сюда презентацию**. 
+Ставьте будильники ⏰ и уведомления</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5575</v>
+      </c>
+      <c r="E53" t="n">
+        <v>95</v>
+      </c>
+      <c r="F53" t="n">
+        <v>95</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>95</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.008968609865471</v>
+      </c>
+      <c r="L53" t="n">
+        <v>34.48940707856424</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.5381165919282511</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.008968609865471</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>26.02.2025 14:08</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>**Забирайте свою бизнес идею👇
+Чтобы вы гарантированно нашли идею, к приложению  «Генератор идей» мы сделали:**
+➕ **мини курс-инструкцию**: 5 коротких уроков по выделению интересов и ресурсов 
+➕ **6-ой живой урок**, как оценить рыночный потенциал выбранной идеи
+➕ **чат с преподавателями **SOHO, которые помогают вам на всех этапах мини курса по поиску идеи!💡 
+➕ **доступ** к приложению «Генератор идей», где мы совместили алгоритмы SOHO и ИИ
+И все это за ~~9.990~~ 👉 **3.990** 🔥
+[КУПИТЬ ДОСТУП К ПРИЛОЖЕНИЮ «ГЕНЕРАТОР ИДЕЙ» и МИНИ КУРСУ ПО ПОИСКУ ИДЕИ](https://soho.mba/order/995443?fieldValuesQuery=-1808-20198&amp;promoCode=SALESIDEA60) 👇
+https://soho.mba/order/995443?fieldValuesQuery=-1808-20198&amp;promoCode=SALESIDEA60
+Мини курс по поиску идеи будет с 3 по 12 марта</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E54" t="n">
+        <v>44</v>
+      </c>
+      <c r="F54" t="n">
+        <v>44</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>44</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>35</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9137577002053388</v>
+      </c>
+      <c r="L54" t="n">
+        <v>34.4476507120504</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3.593429158110883</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.9137577002053388</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>21.03.2025 14:50</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>**Половина малого и среднего бизнеса РФ столкнулась с падением продаж**
+Малый и средний бизнес (МСБ) первым почувствовал на себе охлаждение экономики. Индекс деловой активности малого и среднего бизнеса RSBI, который рассчитывают Промсвязьбанк, ассоциация МСБ «Опора России» и аналитический центр НАФИ, в феврале [опустился](https://www.psbank.ru/bank/press/news/2025/03/20-01) до 51,7 пункта (больше 50 – рост, меньше – спад). Последний раз так мало было в январе 2023 г., когда власти только начинали заливать экономику деньгами для исполнения военных заказов.
+Особенно плохо обстоят дела с продажами. Эта компонента индекса снизилась до 44, двухлетнего минимума. Почти половина (47%) малых и средних предприятий (МСП) отметили сокращение выручки, в январе их было 38%. Сильнее других страдают малый бизнес и торговые компании, где выручка упала у более половины опрошенных (51% и 52%, соответственно). Увеличить выручку в феврале смогли лишь 10% МСП. В январе таких было 15%.
+[**Платформа X (ru)|**](https://x.com/ejdaysru)[**Платформa Х (eng)|**](https://x.com/ejdaysen)[**BlueSky**](https://bsky.app/profile/ejdays.bsky.social)[**|WhatsApp**](https://whatsapp.com/channel/0029VaDJMh79Bb5rWFHREO3N)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>5221</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23</v>
+      </c>
+      <c r="F55" t="n">
+        <v>23</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>23</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>46</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.340739321968971</v>
+      </c>
+      <c r="L55" t="n">
+        <v>34.16932077833943</v>
+      </c>
+      <c r="M55" t="n">
+        <v>8.810572687224671</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.340739321968971</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>17.03.2025 09:20</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Алина, не рассказывайте никому 😂 итак по будильнику заказываем, а вы увеличите конкуренцию</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>6958</v>
+      </c>
+      <c r="E56" t="n">
+        <v>107</v>
+      </c>
+      <c r="F56" t="n">
+        <v>107</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>107</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.652773785570566</v>
+      </c>
+      <c r="L56" t="n">
+        <v>34.13045792618421</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.5748778384593274</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.652773785570566</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>18.03.2025 17:15</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>**Вывод: проблема одна НЕТ ПРОДАЖ
+А ошибок у людей миллион!!!**
+• Кто то пытается с планируемым спросом идти в каналы для горячего 
+• Кто-то не умеет конвертировать
+• кто-то ведет с рекламы аудиторию НЕ ТУДА 
+• кто-то вообще не в тех каналах продаж сидит
+• у кого-то нет скриптов/офферов
+• кто-то продает не на ту ЦА
+😩😩😩
+Решили что всем в директе не поможешь, поэтому делаем открытый урок в это воскресенье 
+[ПОЧЕМУ НЕТ ПРОДАЖ](https://t.me/soho_mba_profit_bot)
+Разберем все ошибки : кому , где , с каким типом спроса и прогретостью в каких каналах продавать. 
+Регистрация тут 👇
+https://t.me/soho_mba_profit_bot
+https://t.me/soho_mba_profit_bot
+https://t.me/soho_mba_profit_bot</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>6052</v>
+      </c>
+      <c r="E57" t="n">
+        <v>67</v>
+      </c>
+      <c r="F57" t="n">
+        <v>67</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>67</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>19</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.520158625247852</v>
+      </c>
+      <c r="L57" t="n">
+        <v>32.47246145371511</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.139458030403173</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.520158625247852</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>23.01.2025 14:17</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Посмотрите кружок ☝️
+А теперь примеры: 
+1. Гель для бровей Pusy “выстрелил». Чистая прибыль по 23 году более 600 млн р. 
+2. Салоны для кудрявых Так и ходи «выстрелили». И стали мини империей: обучение мастеров, свой бренд косметики. 
+3. Вкусвил «выстрелил». Тут без комментариев😅. 
+4. Бытовая химия Синергетик «выстрелила». Тоже 🤣</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>8259</v>
+      </c>
+      <c r="E58" t="n">
+        <v>96</v>
+      </c>
+      <c r="F58" t="n">
+        <v>96</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>96</v>
+      </c>
+      <c r="I58" t="n">
+        <v>16</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.356096379706986</v>
+      </c>
+      <c r="L58" t="n">
+        <v>32.15748536586492</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.356096379706986</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>13.06.2025 15:19</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Петю и Афину не повели в школу сегодня. Мишу тоже не повели 😂</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>5746</v>
+      </c>
+      <c r="E59" t="n">
+        <v>103</v>
+      </c>
+      <c r="F59" t="n">
+        <v>103</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>103</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.896971806474069</v>
+      </c>
+      <c r="L59" t="n">
+        <v>32.15475120034534</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.896971806474069</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>28.01.2025 16:21</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Алина, я работаю маркетологом в бренде одежды (купальники, белье, домашняя одежда), я благодаря вашему БЕСПЛАТНОМУ уроку по ценностям и сценариям год назад собрала им 3 новых сегмента аудитории! Хозяйка бренда была в шоке, что надо демонстривать сценарий «в подарок», например. Мы так все линию туник продали летом )</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>5440</v>
+      </c>
+      <c r="E60" t="n">
+        <v>106</v>
+      </c>
+      <c r="F60" t="n">
+        <v>106</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>106</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.985294117647059</v>
+      </c>
+      <c r="L60" t="n">
+        <v>31.85153669425907</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.985294117647059</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>12.06.2025 15:43</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Мишин метод ванлав и если упростить - вы станете одними из, а пока вы Эверест бизнес-обучения для малого/среднего бизнеса и до вас всем остальным как до Китая пешком</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>4110</v>
+      </c>
+      <c r="E61" t="n">
+        <v>95</v>
+      </c>
+      <c r="F61" t="n">
+        <v>95</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>95</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2.4330900243309</v>
+      </c>
+      <c r="L61" t="n">
+        <v>31.02229977663363</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.24330900243309</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.4330900243309</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>28.02.2025 19:14</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>**Если не следили, то основные выводы:**
+1. Трамп заявил после встречи, что Зеленский не готов к миру 🤷‍♀️ 
+2. Сделка по редкоземельным ископаемым отложена</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>7423</v>
+      </c>
+      <c r="E62" t="n">
+        <v>83</v>
+      </c>
+      <c r="F62" t="n">
+        <v>83</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>83</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>9</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.320220934931968</v>
+      </c>
+      <c r="L62" t="n">
+        <v>30.57291988555475</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.212447797386501</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.320220934931968</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>06.03.2025 07:05</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>⚠️ **Причем тут прокладки: 
+**
+Каким ОДНИМ свойством должен обладать бизнес, если вы планируете открывать что-то в 2025 году. 
+🚨Архиважный подкаст ‼️</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>7386</v>
+      </c>
+      <c r="E63" t="n">
+        <v>57</v>
+      </c>
+      <c r="F63" t="n">
+        <v>57</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>57</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>19</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.177904142973193</v>
+      </c>
+      <c r="L63" t="n">
+        <v>30.56610271363246</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.572434335228811</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.177904142973193</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>05.05.2025 10:02</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>**В SoHo News вышла большая редакционная статья
+«3 правила больших продаж в малом бизнесе».**
+Жестко, но честно про то, как малый бизнес продает и как должен продавать🤷‍♀️. В конце - подарки. 
+Читать:
+https://t.me/soho_news/329</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>6206</v>
+      </c>
+      <c r="E64" t="n">
+        <v>51</v>
+      </c>
+      <c r="F64" t="n">
+        <v>51</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>51</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>24</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.256848211408314</v>
+      </c>
+      <c r="L64" t="n">
+        <v>29.58576235837502</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.867225265871737</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.256848211408314</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>07.04.2025 12:16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>С детьми классная корреляция, действительно, ребёнок перестаёт себя чувствовать в безопасности с вечно спрашивающим/уточняющим/неуверенным родителем, у него развивается альфа-комплекс и все вытекающие. Вобшем, инфа - огонь, спасибо, что обратили на это внимание!❤️❤️❤️</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>7776</v>
+      </c>
+      <c r="E65" t="n">
+        <v>68</v>
+      </c>
+      <c r="F65" t="n">
+        <v>68</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>68</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>17</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.118827160493827</v>
+      </c>
+      <c r="L65" t="n">
+        <v>29.32028264752074</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2.186213991769547</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.118827160493827</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>17.06.2025 19:49</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>А я не увидела формулировку "подарок" и "бесплатно".
+Но 3 месяца для меня оказались важнее, чем лето😅</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>5236</v>
+      </c>
+      <c r="E66" t="n">
+        <v>90</v>
+      </c>
+      <c r="F66" t="n">
+        <v>90</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>90</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.814362108479756</v>
+      </c>
+      <c r="L66" t="n">
+        <v>28.5772670239273</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.1909854851031322</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.814362108479756</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>14.01.2025 10:43</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>А кто-то уже прошел весь мини курс и получил 4 идеи на просчет! 
+Ну кайф же. Впереди много работы по расчету потенциала превращению идеи в продукт! Но первый шаг сделан!🔥🤌</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>11002</v>
+      </c>
+      <c r="E67" t="n">
+        <v>90</v>
+      </c>
+      <c r="F67" t="n">
+        <v>90</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>90</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9271041628794765</v>
+      </c>
+      <c r="L67" t="n">
+        <v>28.19609075043208</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.9271041628794765</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20.03.2025 17:45</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>**Базовый БЕСПЛАТНЫЙ урок по продажам для тех, у кого сейчас нет времени на сложные обучения **
+[ПОЧЕМУ У МЕНЯ НЕТ ПРОДАЖ](https://t.me/soho_mba_profit_bot)
+будет в это воскресенье, 23 марта, в 14.00 мск
+1️⃣ разберем, где ищут вас ваши клиенты (зависит от типа спроса)
+2️⃣ куда вести аудиторию с рекламы (зависит от теплоты аудитории и канала рекламы)
+3️⃣ какие офферы/триггеры/скрипты нужны вам в разных каналах продаж
+Самая важная база в 2025 году. 
+Увидимся в это воскресенье!👇
+https://t.me/soho_mba_profit_bot
+https://t.me/soho_mba_profit_bot
+https://t.me/soho_mba_profit_bot</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5293</v>
+      </c>
+      <c r="E68" t="n">
+        <v>35</v>
+      </c>
+      <c r="F68" t="n">
+        <v>35</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>35</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>23</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.265822784810127</v>
+      </c>
+      <c r="L68" t="n">
+        <v>26.98738570059459</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4.345361798601927</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.265822784810127</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>19.06.2025 13:18</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Сходила на лимфодренажный массаж. Так как сильно отекла от стресса и недосыпа. Рассказываю , откуда стресс и Про 2 техники продаж:
+1. Усиление проблемы 
+2. Хвалить
+Рассказываю в кружочке, что это. Что работает на вас?👇 или что вы используете в своих продажах ?</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>6517</v>
+      </c>
+      <c r="E69" t="n">
+        <v>55</v>
+      </c>
+      <c r="F69" t="n">
+        <v>55</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>55</v>
+      </c>
+      <c r="I69" t="n">
+        <v>18</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.242903176308117</v>
+      </c>
+      <c r="L69" t="n">
+        <v>26.57205371523675</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.227558692649992</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.242903176308117</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>04.01.2025 13:07</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Чтобы понять, как предприниматели создают СВОИ продукты, мы сделали для вас офигенный бизнес тренажер!
+Вы прям будете принимать решения как предпринимателя на уроке. 
+Но только для участников завтрашнего урока-практикума! 👇
+Места тут:
+https://t.me/soho_freedomweb_bot
+**Встречаемся завтра, 5 января, в 12.00 мск**</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>7508</v>
+      </c>
+      <c r="E70" t="n">
+        <v>73</v>
+      </c>
+      <c r="F70" t="n">
+        <v>73</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>73</v>
+      </c>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.198721363878529</v>
+      </c>
+      <c r="L70" t="n">
+        <v>26.36730583537441</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.198721363878529</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>07.02.2025 12:01</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>О, пошел процесс! Ща добрем🔥</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>5706</v>
+      </c>
+      <c r="E71" t="n">
+        <v>86</v>
+      </c>
+      <c r="F71" t="n">
+        <v>86</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>86</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.559761654398878</v>
+      </c>
+      <c r="L71" t="n">
+        <v>26.16810024386718</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.559761654398878</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>27.06.2025 14:48</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Ситуация: загородный отель
+2 канала продаж:
+1️⃣ Агрегаторы (Островок и проч) 
+2️⃣ Event агентства, которые продают отель под корпоративы 
+Комиссия агрегаторов - 18%
+Комиссия агентствам - 10%
+Ааааааааа😩
+Хорошо, что этот отель был на спецкурсе 😍
+Регулярный оффер тем, кто приводит тебе жирных корп клиентов, должна быть 20%. А за очень жирных - 25%
+И это тоже ошибка в **ценах и офферах**. Которая сильно влияет на продажи и выручку. 
+Сегодня последний день продаж спецкурса 👇:
+https://soho.mba/sc-offers?promoCode=PAO5000
+Два самых важных инструмента ваших продаж 🤌</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>6232</v>
+      </c>
+      <c r="E72" t="n">
+        <v>68</v>
+      </c>
+      <c r="F72" t="n">
+        <v>68</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>68</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>8</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.267650834403081</v>
+      </c>
+      <c r="L72" t="n">
+        <v>25.28167307490218</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.283697047496791</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.267650834403081</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>06.05.2025 23:43</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Использовали этот инструмент с курса спрос для курса психолога 
+В итоге на самый дорогой тариф выстроилась очередь 🤣
+(У нас просто казалось что выгоднее взять дороже из-за бонусов)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>6165</v>
+      </c>
+      <c r="E73" t="n">
+        <v>71</v>
+      </c>
+      <c r="F73" t="n">
+        <v>71</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>71</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.29764801297648</v>
+      </c>
+      <c r="L73" t="n">
+        <v>24.11494898153656</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.32441200324412</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.29764801297648</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>21.03.2025 15:08</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Обломов (крупный фудблоггер) закрывает свои точки (и доставку) в СПб из-за падения спроса, так прямо и сказал</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>5290</v>
+      </c>
+      <c r="E74" t="n">
+        <v>32</v>
+      </c>
+      <c r="F74" t="n">
+        <v>32</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>32</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>20</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.09640831758034</v>
+      </c>
+      <c r="L74" t="n">
+        <v>23.2855308830079</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3.780718336483932</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.09640831758034</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>08.01.2025 17:42</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>**Для тех, кто это понимает, но пока не знает, что ему открыть,** **мы сделали ОТДЕЛЬНЫЙ базовый курс по поиску, выбору и оценке  идеи для бизнеса.**
+Это самая важная БАЗА. От которой потом будет зависеть все:
+• ваша маржа 
+• ваша прибыль
+• спрос на продукт
+• удовлетворение от бизнеса
+При этом с вами работают не только преподаватели. Самую сложную работу за вас делает ИИ! Да! Мы сделали специальное приложение - генератор идей! Вы загружаете туда свой профиль и он собирает вам идеи. 
+**Стоит этот курс 9.990. Но на Новый год - мы дарим скидку и генератор идей можно купить за ~~9.990~~   3.990 🔥👇
+****https://soho.mba/order/995443?fieldValuesQuery=-1808-19127&amp;promoCode=IDEA60****
+**Старт 11 января. 5 простых уроков по 10-15 минут. Плюс умное приложение, которое генерит вам идеи!</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>7822</v>
+      </c>
+      <c r="E75" t="n">
+        <v>65</v>
+      </c>
+      <c r="F75" t="n">
+        <v>65</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>65</v>
+      </c>
+      <c r="I75" t="n">
+        <v>12</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9971874200971618</v>
+      </c>
+      <c r="L75" t="n">
+        <v>22.86668372299229</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.1278445410380977</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.9971874200971618</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>08.01.2025 19:24</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Ура! Наконец-то я посмотрела полноценно весь вебинар!
+На каникулах была в Белгородской области, у родителей в гостях (по известным всем причинам…связь даже сотовая оставляет желать лучшего, про интернет мобильный и говорить нечего). Так вот, при попытке посмотреть он-лайн, удалось увидеть только блок про презентацию мини-курса, купила сразу, не раздумывая. Это же просто реально подарок. На чп купила акционное предложение, боялась идти на курс без подготовки. И вот она в виде такого мини-курса🥰
+Миша, Алина, спасибо ☺️ 
+Есть одна просьба и один вопрос. Просьба: пожалуйста, если есть возможность провести онлайн вебинар в вечернее время или выходной, было бы очень здорово. Уверена, люди, которые сейчас в найме меня поддержат)
+И вопрос: как записаться на ближайший курс «продукт на миллион» с обратной связью. Боюсь, что мест не останется, пока буду проходить мини-курс)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>7691</v>
+      </c>
+      <c r="E76" t="n">
+        <v>66</v>
+      </c>
+      <c r="F76" t="n">
+        <v>66</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>66</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9881679885580549</v>
+      </c>
+      <c r="L76" t="n">
+        <v>21.95838790528751</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.9881679885580549</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>18.03.2025 17:08</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>**Рубрика** «**У меня нет продаж. Алина, помогите!»**
+Прошу прислать:
+• что продаете 
+• кому продаете 
+• где продаете 
+Зачитываю вам ошибки, «почему нет продаж». С ответами, что делать.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>6027</v>
+      </c>
+      <c r="E77" t="n">
+        <v>39</v>
+      </c>
+      <c r="F77" t="n">
+        <v>39</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>39</v>
+      </c>
+      <c r="I77" t="n">
+        <v>18</v>
+      </c>
+      <c r="J77" t="n">
+        <v>7</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1.061888169902107</v>
+      </c>
+      <c r="L77" t="n">
+        <v>21.60950672597271</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.16144018583043</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.061888169902107</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>14.04.2025 13:11</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Спрос толком не прошел, а заказами засыпало. Обожаю 🤌
+Это ребята сейчас на мини курсе по продажам учатся и делятся результатами.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>6339</v>
+      </c>
+      <c r="E78" t="n">
+        <v>58</v>
+      </c>
+      <c r="F78" t="n">
+        <v>58</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>58</v>
+      </c>
+      <c r="I78" t="n">
+        <v>11</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.104275122259031</v>
+      </c>
+      <c r="L78" t="n">
+        <v>21.0924193613289</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.1577535888941473</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.104275122259031</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>19.04.2025 08:56</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Алина, извиняюсь, что в личку пишу. Почти досмотрела ваш последний эфир с Михаилом на мини-курсе. Вы лучшие в своем деле, однозначно! 
+Я никогда не смотрю такие длинные эфиры в силу нехватки времени. Но ваш смотрела от и до. 
+Иду на Спрос, однозначно ❤️
+Вы своим подходом, любовью к делу и сервисом просто влюбляете в себя 🫶🏼</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>4723</v>
+      </c>
+      <c r="E79" t="n">
+        <v>66</v>
+      </c>
+      <c r="F79" t="n">
+        <v>66</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>66</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.460935845860682</v>
+      </c>
+      <c r="L79" t="n">
+        <v>20.82539489820166</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.460935845860682</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>22.05.2025 15:42</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1. Если это полный текст вашей рассылки, то тут ВООБЩЕ НЕ ПОНЯТЕН ПРОДУКТ. Вы пишете, что  создаете КП (коммерческие предложения), но при этом вы фотограф.. Вообще непонятно, как она это делает, если КП - это текст с ценами, ценности, триггеры, иногда таблицы...  
+фото в КП обеспечивают прозрачность продукта. Вы еще и все остальное делаете за клиента? Расчеты, его офферы , ценности и проч? Тогда это уже не услуга фотографа. 
+Возможно на проф языке фотографов аббревиатура КП имеет другое значение, тогда ее лучше пояснить. Так как у клиента тоже могут возникнуть вопросы.  
+2. Если говорить о съемках, то надо обязательно обозначить, для чего фот.  для каталогов? для маркетплейсов? для чего еще? 
+4. Лучше каждое письмо делать индивидуальным. И сращу писать о продукте клиента. Например, «сделаю фото вашей одежды для маркетплейса». Или «фотографии ваших экскаваторов для сайта аренды» и проч…
+3. Ну и самое главное: когда речь идет о b2b, где куча чеков с клиентов, какой смысл ограничивать в оффере съемку одним часом? Какую задачу это решит? Задачу решит красиво сделанная работа, а сколько она займет в данном случае не так важно.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>3715</v>
+      </c>
+      <c r="E80" t="n">
+        <v>53</v>
+      </c>
+      <c r="F80" t="n">
+        <v>53</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>53</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>7</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.61507402422611</v>
+      </c>
+      <c r="L80" t="n">
+        <v>20.67083681549741</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.884253028263795</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1.61507402422611</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>16.02.2025 13:56</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Прикиньте, что раскопали! 👆
+Рассказываю, почему на бизнес тренажер 23 февраля можно приходить парами! 😅
+Устроим соревнование, у кого в вашей паре больше предпринимательской «жилки»!
+Будет семейный бизнес тренажер!
+Если пары нет, или она не может, не страшно. Бизнесу это никак не помешает!
+Регистрация на урок тут👇
+https://t.me/soho_BizTrainerBot</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>6370</v>
+      </c>
+      <c r="E81" t="n">
+        <v>58</v>
+      </c>
+      <c r="F81" t="n">
+        <v>58</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>58</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.067503924646782</v>
+      </c>
+      <c r="L81" t="n">
+        <v>20.61773094394958</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.3139717425431711</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1.067503924646782</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>21.05.2025 13:49</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Пишите в комментариях свои офферы. Будем разбирать, как улучшить 👇</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>4033</v>
+      </c>
+      <c r="E82" t="n">
+        <v>23</v>
+      </c>
+      <c r="F82" t="n">
+        <v>23</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>23</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="n">
+        <v>6</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.388544507810563</v>
+      </c>
+      <c r="L82" t="n">
+        <v>20.5459241074574</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.48772625836846</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1.388544507810563</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>14.06.2025 14:03</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Если на [спецкурс](https://soho.mba/sc-offers?promoCode=PAO5000) не идете, то досконально изучите офферы и акции Соколов. Они живут на офферах и акциях. И делают это филигранно. Решают ими буквально все задачи. И на привлечение. И на удержание. И на увеличение чека.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>4931</v>
+      </c>
+      <c r="E83" t="n">
+        <v>47</v>
+      </c>
+      <c r="F83" t="n">
+        <v>47</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>47</v>
+      </c>
+      <c r="I83" t="n">
+        <v>9</v>
+      </c>
+      <c r="J83" t="n">
+        <v>5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.237071587913202</v>
+      </c>
+      <c r="L83" t="n">
+        <v>20.15118599596677</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.013993104846887</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.237071587913202</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>01.03.2025 16:13</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Простите, что файлом. Но телеграм ужасно портит качество на видео 50 секунд 🥹. Я решила , что лучше файлом, чем мыльная картинка</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>7379</v>
+      </c>
+      <c r="E84" t="n">
+        <v>54</v>
+      </c>
+      <c r="F84" t="n">
+        <v>54</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>54</v>
+      </c>
+      <c r="I84" t="n">
+        <v>11</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9079821113972084</v>
+      </c>
+      <c r="L84" t="n">
+        <v>20.13825754416773</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.2710394362379726</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.9079821113972084</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>01.03.2025 15:47</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3 бизнес секрета Зары☝️. 
+Найдите на видео Мишу! Кто найдет - пишите в комментарии👇😅</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>7002</v>
+      </c>
+      <c r="E85" t="n">
+        <v>42</v>
+      </c>
+      <c r="F85" t="n">
+        <v>42</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>42</v>
+      </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.8711796629534418</v>
+      </c>
+      <c r="L85" t="n">
+        <v>19.34774707396238</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.5712653527563554</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.8711796629534418</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>21.03.2025 16:12</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>**42% из вас проголосовали, что покупать стали хуже, продаж меньше. **
+Значит, с вами увидимся в это воскресенье в 14.00 мск на БЕСПЛАТНОМ уроке 
+[ПОЧЕМУ НЕТ ПРОДАЖ](https://t.me/soho_mba_profit_bot)
+Таких урока будет в этом году всего 2: в первом квартале года (сейчас) и в последнем. 
+1️⃣ Впервом (23 марта)  дадим «скорую помощь» для тех, кому надо срочно в начале года поднять спрос. И на год настроить себе конвейер. 
+2️⃣ На втором (в четвертом квартале) сверим часы и расскажем как не профукать самый хлебный квартал года. 
+Очень советую не пропустить воскресный урок. Потому что он самый важный для предпринимателя в этом году 👇
+https://t.me/soho_mba_profit_bot
+https://t.me/soho_mba_profit_bot
+https://t.me/soho_mba_profit_bot</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>6214</v>
+      </c>
+      <c r="E86" t="n">
+        <v>32</v>
+      </c>
+      <c r="F86" t="n">
+        <v>32</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>32</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>13</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.8368200836820083</v>
+      </c>
+      <c r="L86" t="n">
+        <v>19.14831968301981</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2.092050209205021</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.8368200836820083</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>12.02.2025 15:46</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>**Мы делаем бесплатный открытый урок где на основе вашего потенциала покажем, какой бизнес вам подойдет.**
+С точки зрения:
+• риска
+• прибыльности
+• масштаба
+• темперамента.
+Бизнесы, как и люди, бывают разные и исходя из вашего типа личности, темперамента вам подойдет что -то свое. Чтобы вы получали максимальное удовольствие и от продукта, и от прибыли в нем. 
+**Урок будет максимально практичным.**
+__Бизнес тренажер: моделирование  разных ситуаций на старте бизнеса, а вы учитесь принимать решения как предприниматель. И чувствуете комфортно вам или нет. __
+**Регистрация тут 👇**
+https://t.me/soho_BizTrainerBot
+https://t.me/soho_BizTrainerBot
+https://t.me/soho_BizTrainerBot</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>6032</v>
+      </c>
+      <c r="E87" t="n">
+        <v>47</v>
+      </c>
+      <c r="F87" t="n">
+        <v>47</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>47</v>
+      </c>
+      <c r="I87" t="n">
+        <v>12</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.011273209549072</v>
+      </c>
+      <c r="L87" t="n">
+        <v>18.95656702010142</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.3315649867374005</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1.011273209549072</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>27.04.2025 10:57</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Екатерина, ваши первые партнеры это риэлторы. Вопрос, как выстроена с ними работа. Просто рассылка, конечно, работать не будет))) это спам. 
+Важно именно ПОСТРОИТЬ партнерку с ними, чтобы они были замотивированы вас продавать. 
+По остальным каналам надо смотреть всю «начинку». Часто бывает, что предприниматель говорит «не работает этот канал», смотришь внутрь, а там абсолютно неправильно написано объявление/карточка, нет оффера или он слабый, нет транзакционных ценностей, нет системы дожатия лида в клиента и проч. Короче, нет цепочки в канале. Вот и не работает.
+И самих каналов маловато. Только телега - это оч мало. Тем более там очень дорогие лиды. Попробуйте рекламные каналы - контекст, таргет. 
+А еще рекламу у блогеров в инсте. Можно даже product placement сделать с профильными блогерами, кто продает заработок на недвижимости.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>5128</v>
+      </c>
+      <c r="E88" t="n">
+        <v>36</v>
+      </c>
+      <c r="F88" t="n">
+        <v>36</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>36</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>9</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.033541341653666</v>
+      </c>
+      <c r="L88" t="n">
+        <v>18.79393531825847</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.755070202808112</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.033541341653666</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>10.01.2025 16:14</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Я бы партнерилась с отелем) а отель бы украшал номера/лобби/рестораны живыми цветами</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>8775</v>
+      </c>
+      <c r="E89" t="n">
+        <v>64</v>
+      </c>
+      <c r="F89" t="n">
+        <v>64</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>64</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.7635327635327636</v>
+      </c>
+      <c r="L89" t="n">
+        <v>18.73893134683755</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.7635327635327636</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>30.01.2025 15:47</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>У вас точно продукт в правильной “ячейке”?… или у вас «свежий хлеб онлайн» и «озеленение B2C”? 
+Если вы еще не заработали на своем продукте столько денег, сколько хотели, значит где-то вы не там или не с тем или не на тех…
+На уроке в это воскресенье мы разложим «удачу» на атомы. Покажем, как «отредактировать» продукт с точки зрения ниши, ассортимента, ценностей, упаковки, чтоб он встал в нужную ячейку, где есть деньги. 
+Урок бесплатный. Регистрируйтесь 👇
+https://t.me/soho_FortuneLogic_bot</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>5345</v>
+      </c>
+      <c r="E90" t="n">
+        <v>52</v>
+      </c>
+      <c r="F90" t="n">
+        <v>52</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>52</v>
+      </c>
+      <c r="I90" t="n">
+        <v>8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.141253507951356</v>
+      </c>
+      <c r="L90" t="n">
+        <v>18.72203344646504</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.1870907390084191</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1.141253507951356</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>27.04.2025 12:02</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Если вы как садовый центр, то это локационный бизнес скорее. А значит локационная реклама. 
+Поселки, коттеджи, садовые товарищества - наружка. 
+Сезонные офферы в рекламе: малина, яблони, тюльпаны под сезон. 
+Если у вас доставка по стране, то вам подходят вообще все каналы. Все что есть на Спросе. Даже тендеры )</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>5958</v>
+      </c>
+      <c r="E91" t="n">
+        <v>49</v>
+      </c>
+      <c r="F91" t="n">
+        <v>49</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>49</v>
+      </c>
+      <c r="I91" t="n">
+        <v>7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9902651896609601</v>
+      </c>
+      <c r="L91" t="n">
+        <v>18.40465810422196</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.5035246727089627</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.9902651896609601</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>02.07.2025 12:21</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Когда я начинаю полезный прогрев к менеджменту, самая горячая тема всегда - **МОТИВАЦИЯ СОТРУДНИКОВ 
+**Делаю** **день ответов на вопросы по мотивации сотрудников (финансовой и не финансовой). Задавайте в комменты 👇</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>5629</v>
+      </c>
+      <c r="E92" t="n">
+        <v>45</v>
+      </c>
+      <c r="F92" t="n">
+        <v>45</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>45</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.03037839758394</v>
+      </c>
+      <c r="L92" t="n">
+        <v>18.18527416392398</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.3553028957186001</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.03037839758394</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>22.05.2025 16:05</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Это отличный оффер для клиентов, уже принявших решение стать клиентами.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>4972</v>
+      </c>
+      <c r="E93" t="n">
+        <v>48</v>
+      </c>
+      <c r="F93" t="n">
+        <v>48</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>48</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.126307320997586</v>
+      </c>
+      <c r="L93" t="n">
+        <v>18.05609249833482</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.8045052292839903</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.126307320997586</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>11.07.2025 17:25</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Как и обещала, красивый русский балет. Смотрим с Афиной «Ромео и Джульетту», музыка Прокофьева ♥️</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>3880</v>
+      </c>
+      <c r="E94" t="n">
+        <v>55</v>
+      </c>
+      <c r="F94" t="n">
+        <v>55</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>55</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.443298969072165</v>
+      </c>
+      <c r="L94" t="n">
+        <v>17.26374277282076</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.443298969072165</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>16.06.2025 15:20</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Да, это идеальная формулировка самого простого из [30 типов офферов!](https://soho.mba/sc-offers?promoCode=PAO5000)
+Но. Даже в ней и даже крупные бренды иногда делают ошибки. 
+И пишут что то типа «Купи 3 и получи скидку 30% на каждый». 
+Что по сути то же самое. Но воспринимается мозгом вообще НЕТ ТАК! И эффект от такой формулировки будет в 100 раз хуже.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>4092</v>
+      </c>
+      <c r="E95" t="n">
+        <v>47</v>
+      </c>
+      <c r="F95" t="n">
+        <v>47</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>47</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.24633431085044</v>
+      </c>
+      <c r="L95" t="n">
+        <v>16.75711680855863</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.9775171065493646</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.24633431085044</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>22.05.2025 15:57</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Тут проблема больше в формулировке оффера. 
+«Верну деньги, если не понравится»:
+1. Наталкивает на мысль, что дизайнер начинающий
+2. Что начинающему дизайнеру надо платить вперед. Много сомнений на клиента навалено сразу. 
+Более взрослой будет формулировка в части разгрузки клиента от ответственности:
+Скетчи — бесплатно.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>3998</v>
+      </c>
+      <c r="E96" t="n">
+        <v>30</v>
+      </c>
+      <c r="F96" t="n">
+        <v>30</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>30</v>
+      </c>
+      <c r="I96" t="n">
+        <v>7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>7</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.100550275137569</v>
+      </c>
+      <c r="L96" t="n">
+        <v>15.99397521869356</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.75087543771886</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.100550275137569</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>05.03.2025 17:58</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>**Кайф! Мини курс по идеям в разгаре! Завтра ребята пойдут на самый важный урок: КАК ИДЕЮ ПРЕВРАТИТЬ В ПРОДУКТ**
+Идея это еще не продукт. Между идеей и продуктом - еще большой экономический путь👇.
+Выбор бизнес модели, ЦА, опер модель, ниша, фин план, набор ценностей, которые должны укладываться в опер модель  …
+**Из любой идеи можно сделать как прибыльный, так и убыточный продукт**. 
+Поэтому превращать идею в продукт (в бизнес) мы будем на большой MBA программе «Продукт на миллион» уже со следующего понедельника. 
+Ссылки на него не будет❌. Больше половины  мест уже занята. Остальное смогут купить только участники мини курса по идеям.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>7067</v>
+      </c>
+      <c r="E97" t="n">
+        <v>33</v>
+      </c>
+      <c r="F97" t="n">
+        <v>33</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>33</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>8</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.6650629687278902</v>
+      </c>
+      <c r="L97" t="n">
+        <v>15.96437786012612</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.132022074430451</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.6650629687278902</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>29.01.2025 16:08</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Ловите, если вы еще не с нами в воскресенье. Советую прийти.
+**Урок «Как оцифровать удачу в бизнесе» 👇**
+https://t.me/soho_FortuneLogic_bot
+Мы нашли такую инфу, от которой сами в шоке. В воскресенье расскажем.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>5667</v>
+      </c>
+      <c r="E98" t="n">
+        <v>46</v>
+      </c>
+      <c r="F98" t="n">
+        <v>46</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>46</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9352391035821422</v>
+      </c>
+      <c r="L98" t="n">
+        <v>15.89833987324896</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.9352391035821422</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>28.01.2025 16:23</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>☝️☝️☝️
+**Сценарии, ценности, упаковка… это все продукт. Но без этого не будет продаж. **
+Урок как делать продукты, которые хорошо продаются будет 2 февраля, в 12.00 мск. Урок бесплатный. Ждем всех маркетологов/продуктологов/сммщиков🫶
+Регистрация тут👇:
+https://t.me/soho_FortuneLogic_bot</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>5444</v>
+      </c>
+      <c r="E99" t="n">
+        <v>45</v>
+      </c>
+      <c r="F99" t="n">
+        <v>45</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>45</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9184423218221895</v>
+      </c>
+      <c r="L99" t="n">
+        <v>14.98150154995111</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.9184423218221895</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>27.05.2025 16:35</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Лучше чтобы цифры орали матом 😀 это было бы точно доходчиво</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>5083</v>
+      </c>
+      <c r="E100" t="n">
+        <v>45</v>
+      </c>
+      <c r="F100" t="n">
+        <v>45</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>45</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9246507967735589</v>
+      </c>
+      <c r="L100" t="n">
+        <v>14.51711987725237</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.3934684241589612</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.9246507967735589</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>04.04.2025 17:38</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>**Ссылка вот:**
+https://t.me/soho_OsnovyProdazh_bot
+**Цена**: 3.990
+**Старт**: 7 апреля 
+**Длительность**: 14 дней
+**Входит**:  7 уроков «золотая база продаж»  ➕ приложение, которое просканирует текущую модель продаж и найдет слабые места  ➕ таблица, которая поможет оцифровать продажи ➕ чат с преподавателями</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>5463</v>
+      </c>
+      <c r="E101" t="n">
+        <v>21</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>21</v>
+      </c>
+      <c r="I101" t="n">
+        <v>13</v>
+      </c>
+      <c r="J101" t="n">
+        <v>6</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.7321984257733846</v>
+      </c>
+      <c r="L101" t="n">
+        <v>14.24578243697501</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.098297638660077</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.7321984257733846</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>07.01.2025 10:49</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Алина, урок потрясающий! Я поняла про себя 2 вещи: 
+1. я точно хочу и могу предпринимать. 
+2. Я точно знаю после этого урока, что буду открывать, что мне подходит 
+3. Я уже представляю, как это посчитать схематично. 
+Ну и мини курс по поиску идеи за 2.990 - это откровенный подарок! Спасибо за это!</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>6356</v>
+      </c>
+      <c r="E102" t="n">
+        <v>44</v>
+      </c>
+      <c r="F102" t="n">
+        <v>44</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>44</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.7394587791063562</v>
+      </c>
+      <c r="L102" t="n">
+        <v>13.71530331087588</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.7394587791063562</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>27.04.2025 10:35</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Поехали! Ответы на вопросы👇
+Яна, добрый день 
+1. Детские праздники и B2B не самая интересная история. 
+Но можно строить партнерки с кафе/ресторанами. Когда родители приходят в кафе, они часто спрашивают: а у вас есть аниматоры? И тут должны рекомендовать вас. Но партнерку надо строить. Это сложный канал продаж. Для начала давать оффер сильнее. 
+2. Строить управление сарафаном. На [Спросе](https://soho.mba/course/sm?promoCode=SM17SALE50#paket) мы даем математику сарафана и все инструменты сарафаном. 
+3. Контекст добавить, если его нет - так как у вас есть горячий спрос
+4. Партнерки с частными садиками и школами. Можно образовательные ивенты. И пригласить туда родителей. Вы так получаете доступ к платежеспособным родителям. Парнерка сложный канал продаж, но если один раз правильно построить - будет приносить клиентов. Главное посчитать математику свою и партнера.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>4285</v>
+      </c>
+      <c r="E103" t="n">
+        <v>41</v>
+      </c>
+      <c r="F103" t="n">
+        <v>41</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>41</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.003500583430572</v>
+      </c>
+      <c r="L103" t="n">
+        <v>13.63192186966242</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.4667444574095683</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.003500583430572</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>22.05.2025 15:49</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Я граф. дизайнер, сейчас как раз ищу новых клиентов и придумала такую идею, но пока не знаю как докрутить именно формулировку.
+Смысл такой:
+Если вам не понравится — верну деньги. 
+Но надо переформулировать: 
+Если не смогу вам помочь — верну предоплату.
+Верну предоплату – если вы не останетесь довольны/не смогу помочь...
+Или что-то такое...
+Интересно мнение предпринимателей: вас бы зацепил такой оффер? 
+Или слишком подозрительно 😀</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>3467</v>
+      </c>
+      <c r="E104" t="n">
+        <v>22</v>
+      </c>
+      <c r="F104" t="n">
+        <v>22</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>22</v>
+      </c>
+      <c r="I104" t="n">
+        <v>11</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.067205076434958</v>
+      </c>
+      <c r="L104" t="n">
+        <v>13.44575213297346</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.153735217767522</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.067205076434958</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>18.07.2025 15:56</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Так из Прокрафта родилась школа  SOHO.
+Мы поняли, что сначала надо научить малый бизнес продавать в скриптах/переписках/встречах/презентациях , а потом давать ему клиентов. 
+Иначе сколько лидов ни дай, все утекает сквозь пальцы 🤷‍♀️.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>3546</v>
+      </c>
+      <c r="E105" t="n">
+        <v>37</v>
+      </c>
+      <c r="F105" t="n">
+        <v>37</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>37</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.128031584884377</v>
+      </c>
+      <c r="L105" t="n">
+        <v>13.35869238991405</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.8460236886632826</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1.128031584884377</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>23.03.2025 18:17</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>В этом году больше таких энергозатратных эфиров с разборами ниш скорее всего больше не будет. 
+Регистрируйтесь на повторы, пока они доступны:
+https://t.me/soho_mba_profit_bot</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>6141</v>
+      </c>
+      <c r="E106" t="n">
+        <v>26</v>
+      </c>
+      <c r="F106" t="n">
+        <v>26</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>26</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6</v>
+      </c>
+      <c r="J106" t="n">
+        <v>6</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.6187917277316398</v>
+      </c>
+      <c r="L106" t="n">
+        <v>13.06080697152631</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.9770395701025891</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.6187917277316398</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20.03.2025 17:37</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Доброе утро всем 👋 Продаю услуги ветеринарной скорой помощи с выездом на дом. Очень мало заявок. Открылись в начале марта за пол месяца всего 3 заявки. Реклама в нашей группе в ВК и настенная реклама. Есть ещё объявления в ТГ в частном канале.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>4958</v>
+      </c>
+      <c r="E107" t="n">
+        <v>14</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>14</v>
+      </c>
+      <c r="I107" t="n">
+        <v>15</v>
+      </c>
+      <c r="J107" t="n">
+        <v>6</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.7059298104074223</v>
+      </c>
+      <c r="L107" t="n">
+        <v>13.05199492336923</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.210165389269867</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.7059298104074223</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>03.07.2025 11:17</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Блин, а если я та звезда 1 из 5?🫣😂😂😂 
+Но которой сейчас предлагают возглавить отдел. 
+Вот у меня тот же вопрос -боюсь, что я звезда в продажах, но буду "не звезда" в рамках начальника отдела продаж(</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>4720</v>
+      </c>
+      <c r="E108" t="n">
+        <v>41</v>
+      </c>
+      <c r="F108" t="n">
+        <v>41</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>41</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.8898305084745763</v>
+      </c>
+      <c r="L108" t="n">
+        <v>12.86496791225694</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.211864406779661</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.8898305084745763</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>06.04.2025 13:55</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Были вопросы , в каком уроке мини курса мы учимся создавать транзакционную ценность?
+**В уроке 4.1 **[**«**](https://t.me/soho_OsnovyProdazh_bot)[Прямые и транзакционные ценности». 
+](https://t.me/soho_OsnovyProdazh_bot)**
+**И это далеко не только скидки и подарки. Вы удивитесь, как еще можно давать покупателю кайф от условий сделки! А транзакционная  ценность не что иное как создание кайфа от условий сделки 
+Умеете создавать транзакционные ценнлсти или продаете только на прямых продуктовых?
+__Типа, вот мои рубашки из лучшего хлопка, хорошо стираются, не скатываются, держат форму?»)))__</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>6082</v>
+      </c>
+      <c r="E109" t="n">
+        <v>29</v>
+      </c>
+      <c r="F109" t="n">
+        <v>29</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>29</v>
+      </c>
+      <c r="I109" t="n">
+        <v>6</v>
+      </c>
+      <c r="J109" t="n">
+        <v>4</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.6412364353830977</v>
+      </c>
+      <c r="L109" t="n">
+        <v>12.79222021257776</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.6576783952647156</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.6412364353830977</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>22.05.2025 15:45</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Оффер неплохой, но доставку (как допуслугу) люди часто обесценивают и подразумевают 
+Поэтому лучше оффер (если продукт позволяет) делать на основной продукт. 
+И доставка нужна только на крупногабарит или тем, кто онлайн заказывает. Помню оффер садового центра, который сама «купила»: садовый центр давал всем покупателям 1-2 куста розы в подарок. Хороший оффер )</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>3474</v>
+      </c>
+      <c r="E110" t="n">
+        <v>29</v>
+      </c>
+      <c r="F110" t="n">
+        <v>29</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>29</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>6</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1.00748416810593</v>
+      </c>
+      <c r="L110" t="n">
+        <v>12.75687040778768</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1.727115716753022</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1.00748416810593</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>18.02.2025 15:57</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>23 февраля 14:00 мск
+**Анализ вашего риск профиля + бизнес тренажер «Смогу ли я стать предпринимателем»
+**
+Регистрация тут 👇
+https://t.me/soho_BizTrainerBot</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>6300</v>
+      </c>
+      <c r="E111" t="n">
+        <v>13</v>
+      </c>
+      <c r="F111" t="n">
+        <v>13</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>13</v>
+      </c>
+      <c r="I111" t="n">
+        <v>21</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="L111" t="n">
+        <v>12.73148716075649</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.5873015873015873</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>05.01.2025 14:04</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Первый повтор будет сегодня в 20.00! 
+Расписание повторов и Ссылка на повторы в канале👇:
+https://t.me/soho_freedomweb_bot</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>6921</v>
+      </c>
+      <c r="E112" t="n">
+        <v>23</v>
+      </c>
+      <c r="F112" t="n">
+        <v>23</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>23</v>
+      </c>
+      <c r="I112" t="n">
+        <v>18</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.5923999422048837</v>
+      </c>
+      <c r="L112" t="n">
+        <v>12.710105514278</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.5923999422048837</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>14.06.2025 14:01</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Добрый день, Алина
+Магазин украшений из серебра в Санкт-Петербурге.
+Ценовой диапазон очень варьируется от 2 тыс до 30 тыс. 
+Браслеты с натуральными камнями : 25-50 тыс. 
+2 тыс это мини гвоздики без каких-либо вставок, в основном. 
+Средняя цена - 15тыс. 
+Не пойму какие офферы будут выгодны для ювелирного магазина 
+А ключевое: 
+И стоит ли делать на украшения офферы со скидками и тд. 
+как правило , приходят за 1 одной позицией. Целенаправленно за кольцом / браслетом/ серьгами и сразу __не готовы купить вторую позицию __сразу.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>4627</v>
+      </c>
+      <c r="E113" t="n">
+        <v>30</v>
+      </c>
+      <c r="F113" t="n">
+        <v>30</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>30</v>
+      </c>
+      <c r="I113" t="n">
+        <v>7</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.8428787551329154</v>
+      </c>
+      <c r="L113" t="n">
+        <v>12.70922299965196</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.4322455154527772</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.8428787551329154</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>14.04.2025 13:11</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Я не могу сказать что прошел его. Просто ооочень нужны были деньги, а спрос несколько лет назад купил, но забил. 
+И глянул самые быстрые способы, профи был в их числе. 
+Применил, результаты выше</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>6514</v>
+      </c>
+      <c r="E114" t="n">
+        <v>36</v>
+      </c>
+      <c r="F114" t="n">
+        <v>36</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>36</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.6447651212772491</v>
+      </c>
+      <c r="L114" t="n">
+        <v>12.63594685225924</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.1535155050660117</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.6447651212772491</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>02.07.2025 19:30</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Ваш курс по менеджменту  — супер! Не буду говорить, что легкий. Совсем нет. Но полезный 100%</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>5006</v>
+      </c>
+      <c r="E115" t="n">
+        <v>41</v>
+      </c>
+      <c r="F115" t="n">
+        <v>41</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>41</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.8389932081502196</v>
+      </c>
+      <c r="L115" t="n">
+        <v>12.53240995122427</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.8389932081502196</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>22.05.2025 15:49</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>А почему вот эту самую косметичку не сделать оффером? Или какой-нибудь шарф/платочек шелковый или что-то такое?
+А в подарок класть купон/сертификат на след покупку для стимулирования повторных.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>3823</v>
+      </c>
+      <c r="E116" t="n">
+        <v>32</v>
+      </c>
+      <c r="F116" t="n">
+        <v>32</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>32</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9678263144127649</v>
+      </c>
+      <c r="L116" t="n">
+        <v>12.17736730632012</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.523149359142035</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.9678263144127649</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>04.06.2025 13:01</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Алина и ее боль 😂</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>4378</v>
+      </c>
+      <c r="E117" t="n">
+        <v>31</v>
+      </c>
+      <c r="F117" t="n">
+        <v>31</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>31</v>
+      </c>
+      <c r="I117" t="n">
+        <v>6</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.8679762448606669</v>
+      </c>
+      <c r="L117" t="n">
+        <v>12.14157620049567</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.2284148012791229</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.8679762448606669</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>27.04.2025 10:41</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Полина, у вас мало горячего спроса (для детей больше, для взрослых оч мало). Нужен хороший инкубатор, чтобы работало на прохладном спросе. Одного бесплатного занятия может быть мало для превращения в клиента. 
+По идее в вашей модели продаж бесплатное первое должно выступать догревом, а не оффером на привлечение. 
+И. Важно сценировать первое бесплатное. Там нужен сильный скрипт, чтобы была конверсия хорошая. Сценарий целиком прорабатываем на [спросе. ](https://soho.mba/course/sm?promoCode=SM17SALE50#paket)
+Авито, ВК, Яндекс  и проч надо подробно разобрать. Какое объявление там, какая карточка, как собраны отзывы и проч. Чтоб не было классики «я пробовал директ - не работает». 
+Ну и если это офлайн , то потенциал не большой по-любому. Может подумать над онлайном.</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>3834</v>
+      </c>
+      <c r="E118" t="n">
+        <v>28</v>
+      </c>
+      <c r="F118" t="n">
+        <v>28</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>28</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.8607198748043818</v>
+      </c>
+      <c r="L118" t="n">
+        <v>11.66892369378499</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1.304121022430882</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.8607198748043818</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>26.02.2025 15:32</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Спасибо! 🙏 Мы долго старались и думали, как нам автоматизировать этот этап. Чтоб каждый мог ПОПРОБОВАТЬ И НАЙТИ СВОЮ ИДЕЮ. или хотя бы понять, в какую сторону ему смотреть. 
+И сделали!💡🔥🤌</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>5322</v>
+      </c>
+      <c r="E119" t="n">
+        <v>26</v>
+      </c>
+      <c r="F119" t="n">
+        <v>26</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>26</v>
+      </c>
+      <c r="I119" t="n">
+        <v>6</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.6576475009394964</v>
+      </c>
+      <c r="L119" t="n">
+        <v>11.53716400205745</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.5636978579481398</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.6576475009394964</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>22.02.2025 16:10</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Завтра на уроке будет много таких бизнес задачек. 
+Будем разбирать ситуации, с которыми начинающий предприниматель сталкивается в самом начале пути. 
+Регистрация на урок 👇
+https://t.me/soho_BizTrainerBot</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>5306</v>
+      </c>
+      <c r="E120" t="n">
+        <v>19</v>
+      </c>
+      <c r="F120" t="n">
+        <v>19</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>19</v>
+      </c>
+      <c r="I120" t="n">
+        <v>13</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.6219374293252921</v>
+      </c>
+      <c r="L120" t="n">
+        <v>10.77710804927228</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.188465887674331</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.6219374293252921</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>03.07.2025 11:30</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Училась у Владислава и у Дмитрия. Постигла процентов 30, но уже выросла существенно. Буду возвращаться и перепроходить, преподаватели мощнейшие!</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>5198</v>
+      </c>
+      <c r="E121" t="n">
+        <v>32</v>
+      </c>
+      <c r="F121" t="n">
+        <v>32</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>32</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.6733358984224702</v>
+      </c>
+      <c r="L121" t="n">
+        <v>10.75357890217408</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.1923816852635629</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.6733358984224702</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>27.04.2025 10:46</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Евгений, партнерки с заводчиками и питомниками - ваша золотая жила
+Классическая цепочка в канале B2B: прямые продажи - идеальное КП - оффер - скрипт - транзакционные ценности для B2B 
+Все делаем на [Спросе.](https://soho.mba/course/sm?promoCode=SM17SALE50#paket) 
+Еще важно иметь доставку.</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>4429</v>
+      </c>
+      <c r="E122" t="n">
+        <v>21</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>21</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>7</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.6321968841724994</v>
+      </c>
+      <c r="L122" t="n">
+        <v>10.53438112672482</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.580492210431249</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.6321968841724994</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>14.06.2025 13:56</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Ох, вам повезло ваш кейс как один из примеров разобран в [спецкурсе](https://soho.mba/sc-offers?promoCode=PAO5000) )) 
+После тестирования миллиона офферов в вашей нише лучше всего работает «проект планировки в подарок» но там много нюансов дальше. 
+За ценовым калькулятором обязательно приходите на спецкурс. У вас сложная услуга.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>3903</v>
+      </c>
+      <c r="E123" t="n">
+        <v>21</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>21</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.7686395080707148</v>
+      </c>
+      <c r="L123" t="n">
+        <v>10.47829577239948</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.7686395080707148</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.7686395080707148</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>14.06.2025 13:59</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>И тот, и другой хорошие офферы. Но они решают разные задачи. 
+Пробный день можно давать бесплатно. Но сначала изучить офферы конкурентов. Дают ли они оффер такой силы. И я бы прогнала его через таблицу расчет силы офферов - как раз учитывая потреб цикл, конкурентную среду, тип спроса. 
+Но один оффер мало. Для бизнеса надо иметь 3-4 оффера в ротации.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>3978</v>
+      </c>
+      <c r="E124" t="n">
+        <v>24</v>
+      </c>
+      <c r="F124" t="n">
+        <v>24</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>24</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.7290095525389643</v>
+      </c>
+      <c r="L124" t="n">
+        <v>10.14545631315777</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.005530417295123</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.7290095525389643</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>06.06.2025 13:00</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>**Если вы уже что-то у нас покупали, для вас цена в корзине автоматически УМЕНЬШИТСЯ на 20%!**
+~~14.900~~ 👉 10.990 🔥
+КУПИТЬ👇:
+https://soho.mba/sc-offers?promoCode=PAO5000</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>5074</v>
+      </c>
+      <c r="E125" t="n">
+        <v>27</v>
+      </c>
+      <c r="F125" t="n">
+        <v>27</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>27</v>
+      </c>
+      <c r="I125" t="n">
+        <v>4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.6306661411115491</v>
+      </c>
+      <c r="L125" t="n">
+        <v>10.01467182048232</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.1970831690973591</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.6306661411115491</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>14.06.2025 13:43</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Добрый день,  Алина!  
+Салон штор в Московской области  
+Сейчас очень сильно просел чек,  людей нет новых,  в основном старые клиенты. 
+Сделали низкую стоимость на пошив,  делаем скидки хорошие. 
+Тяжело стало конкурировать с маркетплейсами,  решили пробовать уходить в премиум сегмент 
+Не понимаю какой оффер можно предложить,  чтобы максимально привлечь?</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>4529</v>
+      </c>
+      <c r="E126" t="n">
+        <v>27</v>
+      </c>
+      <c r="F126" t="n">
+        <v>27</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>27</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.6623978803267829</v>
+      </c>
+      <c r="L126" t="n">
+        <v>9.91789781615568</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.6623978803267829</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.6623978803267829</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>18.04.2025 09:01</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Алина, спасибо большое за такой классный курс, даже после такого маленького обучения уже есть чем заняться, что улучшить и куда двигаться!!! Особенно ценный живой урок и отчёт - практически инструкция что мне делать ближайшие 3 месяца. Дальше снова к вам учиться 🌸🌸🌸</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>4104</v>
+      </c>
+      <c r="E127" t="n">
+        <v>23</v>
+      </c>
+      <c r="F127" t="n">
+        <v>23</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>23</v>
+      </c>
+      <c r="I127" t="n">
+        <v>7</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.7309941520467835</v>
+      </c>
+      <c r="L127" t="n">
+        <v>9.566930784733639</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.7309941520467835</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>29.07.2025 17:07</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Но фишка «результата» сама по себе не будет работать без полноценного сценария всей встречи/консультации/занятия. Ну дали и дали. Спасибо пожалуйста 👋 . 
+Поэтому если хотите много клиентов, высоченные конверсии с консультаций, и не впустую потраченное время- вам сюда: 
+https://soho.mba/sc-script?promoCode=SCRIPT5000#price</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>2245</v>
+      </c>
+      <c r="E128" t="n">
+        <v>22</v>
+      </c>
+      <c r="F128" t="n">
+        <v>22</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>22</v>
+      </c>
+      <c r="I128" t="n">
+        <v>4</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1.202672605790646</v>
+      </c>
+      <c r="L128" t="n">
+        <v>9.563937621463916</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.44543429844098</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1.202672605790646</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>07.01.2025 11:22</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>**Выбрать время повтора **⏰ 
+Ребята, осталось всего 1,5 дня, когда можно посмотреть урок. Дальше он будет недоступен. Успевайте на последние повторы!**
+Выбрать или поменять время 👇
+**
+1. переходите в бота по ссылке https://t.me/soho_freedomweb_bot
+2. Нажимайте «Меню» в левом нижнем углу 
+3. Выбирайте или меняйте время на удобное вам
+Приятного и полезного просмотра!🎁</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>6559</v>
+      </c>
+      <c r="E129" t="n">
+        <v>23</v>
+      </c>
+      <c r="F129" t="n">
+        <v>23</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>23</v>
+      </c>
+      <c r="I129" t="n">
+        <v>8</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.4726330233267266</v>
+      </c>
+      <c r="L129" t="n">
+        <v>9.353888556948581</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.4726330233267266</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>27.04.2025 10:51</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Анна, если я верно поняла, у вас локационный бизнес. 
+А значит должны быть все **геолокационные каналы продаж:** наружка, геолокационные сервисы, я карты… все это делаем на спросе (от банеров до карт).
+А вообще канцелярка на 80% B2B бизнес. Продавайте в офисы, компании… Там другой средний чек. Да, канал сложнее. Но денег там больше, а геморроя по сути меньше. B2B породажи тоже строим на [Спросе](https://soho.mba/course/sm?promoCode=SM17SALE50#paket)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>4246</v>
+      </c>
+      <c r="E130" t="n">
+        <v>27</v>
+      </c>
+      <c r="F130" t="n">
+        <v>27</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>27</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.659444182760245</v>
+      </c>
+      <c r="L130" t="n">
+        <v>8.796917240739406</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.2355157795572304</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.659444182760245</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>22.03.2025 12:48</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Регистрация на эфир тут 👇
+23 марта, 14.00 мск
+https://t.me/soho_mba_profit_bot</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>6168</v>
+      </c>
+      <c r="E131" t="n">
+        <v>8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+      <c r="I131" t="n">
+        <v>8</v>
+      </c>
+      <c r="J131" t="n">
+        <v>6</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.3566796368352789</v>
+      </c>
+      <c r="L131" t="n">
+        <v>8.540452090498334</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.9727626459143969</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.3566796368352789</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>08.07.2025 13:39</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Арина Симонович ☝️, куратор в школе IT
+«Повысили до руководителя кураторов. Стала стоить на рынке дороже, как специалист. С повышением в должности зп выросла на 90%. Из-за знаний, которые показывала в работе, предложили второе повышение с увеличением зп ещё на 50%, но пока отказалась потому, что здесь не всё доделала»
+**Вот об этом поговорим сегодня на эфире. Как добиться повышения не только задач, но и зарплаты и главное без «горижопы»
+Начинаем в 18.00**. **Регистрация на эфир👇**. **
+****https://soho.mba/order/1265670?fieldValuesQuery=-1808-24544**</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>4180</v>
+      </c>
+      <c r="E132" t="n">
+        <v>22</v>
+      </c>
+      <c r="F132" t="n">
+        <v>22</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>22</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.5980861244019139</v>
+      </c>
+      <c r="L132" t="n">
+        <v>8.502582115691812</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.7177033492822966</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.5980861244019139</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>10.01.2025 16:06</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>В комментах есть правильный ответ!</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>8923</v>
+      </c>
+      <c r="E133" t="n">
+        <v>29</v>
+      </c>
+      <c r="F133" t="n">
+        <v>29</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>29</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.3362097949120251</v>
+      </c>
+      <c r="L133" t="n">
+        <v>8.355336492703469</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.3362097949120251</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>11.04.2025 17:36</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Судя по видео - чай из термоса в каком-то клоповнике. Наверное, все самое крутое и красивое осталось за кадром</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>5837</v>
+      </c>
+      <c r="E134" t="n">
+        <v>24</v>
+      </c>
+      <c r="F134" t="n">
+        <v>24</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>24</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.4625663868425561</v>
+      </c>
+      <c r="L134" t="n">
+        <v>8.267142852884811</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.1713208840157615</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.4625663868425561</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>27.05.2025 16:36</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Обожаю 😂♥️</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>4770</v>
+      </c>
+      <c r="E135" t="n">
+        <v>23</v>
+      </c>
+      <c r="F135" t="n">
+        <v>23</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>23</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.5241090146750524</v>
+      </c>
+      <c r="L135" t="n">
+        <v>8.061824632552188</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.4192872117400419</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.5241090146750524</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>10.02.2025 19:41</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Надо поднажать с реакциями 👆</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>5703</v>
+      </c>
+      <c r="E136" t="n">
+        <v>20</v>
+      </c>
+      <c r="F136" t="n">
+        <v>20</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>20</v>
+      </c>
+      <c r="I136" t="n">
+        <v>5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.438365772400491</v>
+      </c>
+      <c r="L136" t="n">
+        <v>7.59141328305962</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.438365772400491</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>23.03.2025 18:16</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Спасибо за столько времени нам уделенному!!! 
+Столько полезной информации, ответов на вопросы 🫶🏼 
+Просто кайф</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>6265</v>
+      </c>
+      <c r="E137" t="n">
+        <v>23</v>
+      </c>
+      <c r="F137" t="n">
+        <v>23</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>23</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.3830806065442937</v>
+      </c>
+      <c r="L137" t="n">
+        <v>6.985630227432384</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.3830806065442937</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>19.05.2025 15:01</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>💝 Для тех, кто уже что то покупал в SOHO, в корзине автоматом применится скидка и **цена на спецкурс уменьшится на 20% **👇
+https://soho.mba/sc-offers?promoCode=PAO5000</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>4577</v>
+      </c>
+      <c r="E138" t="n">
+        <v>15</v>
+      </c>
+      <c r="F138" t="n">
+        <v>15</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>15</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.4588158182215425</v>
+      </c>
+      <c r="L138" t="n">
+        <v>6.903322210897567</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.2184837229626393</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.4588158182215425</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>24.07.2025 19:05</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Ребят, кто  и что вам продавал через КП (коммерческое предложение)?</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>3854</v>
+      </c>
+      <c r="E139" t="n">
+        <v>13</v>
+      </c>
+      <c r="F139" t="n">
+        <v>13</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>13</v>
+      </c>
+      <c r="I139" t="n">
+        <v>6</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.5189413596263622</v>
+      </c>
+      <c r="L139" t="n">
+        <v>6.815738319865278</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.2594706798131811</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.5189413596263622</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>02.02.2025 12:04</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Успевайте на повторы. Их в этот раз немного:
+Зарегистрироваться на повторы 👇
+**https://t.me/soho_FortuneLogic_bot**</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>5631</v>
+      </c>
+      <c r="E140" t="n">
+        <v>11</v>
+      </c>
+      <c r="F140" t="n">
+        <v>11</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>11</v>
+      </c>
+      <c r="I140" t="n">
+        <v>8</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.3551767004084532</v>
+      </c>
+      <c r="L140" t="n">
+        <v>6.603903759431963</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.1775883502042266</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.3551767004084532</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>27.04.2025 10:37</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Студия вокала для взрослых и детей . Авито , Яндекс карты , группа ВКонтакте , инстаграм .
+Листовки по квартирам раздавали не помогли , реклама в местных группах  ВКонтакте не дает клиентов . У нас самые дешевые цены и индивидуальные уроки (а не групповые как в других студиях )во всем городе. Бесплатные пробные уроки . Скидка 10% на любой абонемент при покупке в день пробного урока( рабочая схема )
+Не так много клиентов как хотелось бы . Всего +-20/30 человек. 
+По праздникам предлагаем бесплатно посетить мастер класс по актерскому мастерству</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>3896</v>
+      </c>
+      <c r="E141" t="n">
+        <v>8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>8</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.4106776180698152</v>
+      </c>
+      <c r="L141" t="n">
+        <v>6.363843288585147</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.026694045174538</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.4106776180698152</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>14.06.2025 13:54</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Дизайнер интерьеров, Москва, интересует сегмент бизнес+ - комплектация квартир под сдачу, под продажу. 
+Услуга достаточно сложная, много работы со смежниками, встречи курьеров, переносы, рекламации... Не хотелось бы просто давать скидки и делать работу ради работы...
+Какой выгодный для всех оффер можно предложить?</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>3808</v>
+      </c>
+      <c r="E142" t="n">
+        <v>14</v>
+      </c>
+      <c r="F142" t="n">
+        <v>14</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>14</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.4464285714285714</v>
+      </c>
+      <c r="L142" t="n">
+        <v>6.145408529206181</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.7878151260504201</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.4464285714285714</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>22.05.2025 16:03</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Я педагог по танцам, веду индивидуальные занятия оффлайн
+В стоимость занятия входит моя работа с клиентом + аренда пространства 
+Как такового оффера нет, но при оплате 4 занятий предлагаю скидку 10% 
+Думаю над таким оффером - вместо скидки сделать пятое занятие в подарок , но поднять при этом стоимость разового занятия . Хорошо или нет ? 
+Сомневаюсь про первое занятие - делать его бесплатным не выгодно, так как есть затраты на аренду, давать большую скидку например 50% - не знаю стоит ли , обычно кто приходит на индивидуальные и так остаются у меня</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>4871</v>
+      </c>
+      <c r="E143" t="n">
+        <v>10</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>4</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.3284746458632724</v>
+      </c>
+      <c r="L143" t="n">
+        <v>6.064201676158074</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.821186614658181</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.3284746458632724</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>17.06.2025 19:49</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Тоже верно! В этом тоже эта формулировка сильнее</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>5024</v>
+      </c>
+      <c r="E144" t="n">
+        <v>18</v>
+      </c>
+      <c r="F144" t="n">
+        <v>18</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>18</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.3980891719745223</v>
+      </c>
+      <c r="L144" t="n">
+        <v>6.054451950145245</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.3980891719745223</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>02.03.2025 14:09</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Рассказываю, как проходит мини курс по генерации идей ☝️
+На прошлом потоке были люди, которые прошли его «за ужином»)))
+Но мы даем на него НЕДЕЛЮ! Так как многие еще в найме и работают по графику офиса. 
+Завтра начинаем шаг в новую жизнь🚀
+**Присоединиться за 3.990 👇**
+https://soho.mba/order/995443?fieldValuesQuery=-1808-20198&amp;promoCode=SALESIDEA60</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>6714</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12</v>
+      </c>
+      <c r="F145" t="n">
+        <v>12</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>12</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.2383080131069407</v>
+      </c>
+      <c r="L145" t="n">
+        <v>5.487621215075298</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.4468275245755138</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.2383080131069407</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>08.02.2025 16:53</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Чуток осталось 💪👌. Еще 50 реакций на пост выше и выкладываю</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>5230</v>
+      </c>
+      <c r="E146" t="n">
+        <v>16</v>
+      </c>
+      <c r="F146" t="n">
+        <v>16</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>16</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.3441682600382409</v>
+      </c>
+      <c r="L146" t="n">
+        <v>5.432645281151967</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.3441682600382409</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>22.05.2025 15:33</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ну что, добралась до ваших офферов. Разбираем, улучшаем 👇</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>3503</v>
+      </c>
+      <c r="E147" t="n">
+        <v>10</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.3711104767342278</v>
+      </c>
+      <c r="L147" t="n">
+        <v>4.969168461900829</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.8564087924636027</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.3711104767342278</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>05.01.2025 14:03</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Когда будет повтор?</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>6897</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>9</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+      <c r="I148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.2319849209801363</v>
+      </c>
+      <c r="L148" t="n">
+        <v>4.9607470183948</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.2319849209801363</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>02.02.2025 12:03</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Спасибо за урок. Обязательно буду подписываться на повторы. Переслушивать и вникать, вникать, и вдохновляться и смелеть действовать. В общем, шевелить "булками". Всякими 🤗🙂</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>5317</v>
+      </c>
+      <c r="E149" t="n">
+        <v>16</v>
+      </c>
+      <c r="F149" t="n">
+        <v>16</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>16</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.3009215723152154</v>
+      </c>
+      <c r="L149" t="n">
+        <v>4.71524391168916</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.3009215723152154</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>14.06.2025 13:57</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Продаю детский робототехнический лагерь . Цель - увеличить количество детей в смене . Использую офферы - 4+1 - покупаешь 4 дня в смене , 5ый в подарок . И новичкам 50% скидка на пробный день . 
+Какой оффер эффективенее и выгоднее ?</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>3860</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>9</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.310880829015544</v>
+      </c>
+      <c r="L150" t="n">
+        <v>4.597140749488541</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.7772020725388601</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.310880829015544</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>27.04.2025 10:31</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Добрый день!
+Продаю детские праздники, выездные аниматоры (без своего помещения)
+С В2С в целом понимаю как работать, но выручка от этого не такая большая, как хотелось бы)
+Пытаюсь идти в В2В, аниматоры в ресторанах, лофтах и тд, но куда не приходишь - везде уже занято, либо не интересно
+Как продавать В2В?🥺</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4323</v>
+      </c>
+      <c r="E151" t="n">
+        <v>8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.2775850104094379</v>
+      </c>
+      <c r="L151" t="n">
+        <v>4.349815471361112</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.4626416840157298</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.2775850104094379</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>27.04.2025 12:00</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Здравствуйте! Перепродаю растения. Работаю как садовый центр, доращиваю и продаю. Покупатели приходят через Авито. Мне нужны еще какие-то касания с покупателями. Пока туплю….</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>5359</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>6</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.1492815823847733</v>
+      </c>
+      <c r="L152" t="n">
+        <v>4.218598664027498</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.1196118678858</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.1492815823847733</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>14.04.2025 13:10</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Оформляя этот канал опирался на полный курс «спроса много не бывает»</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>6304</v>
+      </c>
+      <c r="E153" t="n">
+        <v>8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+      <c r="I153" t="n">
+        <v>5</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.2062182741116751</v>
+      </c>
+      <c r="L153" t="n">
+        <v>4.035767619551957</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.2062182741116751</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>27.04.2025 10:54</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Здравствуйте. Направление- хоумстейджинг. Авито; реклама в ТГ каналах по сдаче недвижимости в аренду; рассылка риэлторам; распространение флаеров. Клиентов найти сложно, к сожалению</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>4239</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>6</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.1651332861523944</v>
+      </c>
+      <c r="L154" t="n">
+        <v>3.980655160271666</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1.415428167020524</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.1651332861523944</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>19.05.2025 14:52</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Здравствуйте, Полина!
+Да, у меня есть результаты. Продажи выросли в 4-5 раз. Хотела я изначально хотя бы в 2 раза увеличить, а тут такое 🙈🤗</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>4250</v>
+      </c>
+      <c r="E155" t="n">
+        <v>13</v>
+      </c>
+      <c r="F155" t="n">
+        <v>13</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>13</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.3058823529411765</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3.94484505398182</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.3058823529411765</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>16.05.2025 18:16</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Насколько информация пересекается с большим курсом по Спросу?</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>5119</v>
+      </c>
+      <c r="E156" t="n">
+        <v>8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.2148857198671616</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3.901496407278828</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.3907013088493846</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.2148857198671616</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>08.07.2025 14:24</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Если вы не нашли ссылку на трансляцию, пишите в комменты, поможем 👇👇👇</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>5080</v>
+      </c>
+      <c r="E157" t="n">
+        <v>7</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3.850148445907549</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>11.07.2025 15:32</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>В сторис сегодня рассказываю о секретной системе мотивации, как нанять классного специалиста , но у вас нет на него много денег
+Смотрите, пока висит👇
+https://www.instagram.com/stories/alina_telling/3674355142622416164</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>4352</v>
+      </c>
+      <c r="E158" t="n">
+        <v>7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.2527573529411765</v>
+      </c>
+      <c r="L158" t="n">
+        <v>3.804819166987308</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.2297794117647059</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.2527573529411765</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>29.01.2025 16:07</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Оставьте ссылку на урок,пожалуйста</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>5505</v>
+      </c>
+      <c r="E159" t="n">
+        <v>10</v>
+      </c>
+      <c r="F159" t="n">
+        <v>10</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.217983651226158</v>
+      </c>
+      <c r="L159" t="n">
+        <v>3.636922824539304</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.217983651226158</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>02.02.2025 12:03</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Успела только на вопрос-ответ, но и оттуда много полезной информации и мотивации. 
+Очень хочется увидеть вебинар с начала. Благодарю за ваши эфиры</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>5425</v>
+      </c>
+      <c r="E160" t="n">
+        <v>12</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>12</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.2211981566820276</v>
+      </c>
+      <c r="L160" t="n">
+        <v>3.52738076202175</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.2211981566820276</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>27.04.2025 10:43</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Здравствуйте, Алина!
+Продаем лакомства для собак , хочу в b2b, но не знаю как, с чего начать и как в целом реализовать 
+И какие еще каналы продаж можно использовать? 
+Заранее огромное спасибо</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>3984</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.1757028112449799</v>
+      </c>
+      <c r="L161" t="n">
+        <v>3.107677314566613</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.7530120481927711</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.1757028112449799</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>27.04.2025 10:49</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Добрый день. 
+Магазин канцтоваров. Продажи упали, так как покупатели стали больше заказывать товар на маркетплейсах и также в 7км открылся офисмаг, люди думают, что там дешевле. Но одним из наших поставщиков является офисмаг, заключен дилерский договор и цены те же. Только сарафан. Спасибо.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>4078</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.1716527709661599</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2.436665434988563</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.2452182442373713</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.1716527709661599</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>22.05.2025 15:43</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>У меня садовый центр!
+Доставка по городу бесплатно!
+Иногда из за 500₽ катаемся)))</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>3214</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.1555693839452396</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2.195922557387946</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0.6222775357809583</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.1555693839452396</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>22.05.2025 15:48</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Привет! я шью халаты кимоно и тоуты из бахмаля и адраса, но оффера у меня нет🙈 в подарок кладу косметичку или делаю бесплатную доставку если девушка пришла второй раз. Не знаю,  какой сюда оффер можно составить?</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>3959</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.1010356150543067</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1.829014328237672</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0.5051780752715332</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.1010356150543067</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>15.05.2025 13:01</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Что ж, собрали! Ловите 👇</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>4730</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>3</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.06342494714587738</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1.783896277874966</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0.6342494714587738</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.06342494714587738</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>26.02.2025 15:31</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>вот это пушка</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>5251</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.05713197486193106</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1.294096031599093</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0.1904399162064369</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.05713197486193106</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>04.04.2025 17:36</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>А ссылка на мини курс уже была? Где ее найти? Там будет про цены, да?</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>5273</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.05689360895126114</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1.29342314080096</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.1896453631708705</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.05689360895126114</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>20.07.2025 13:23</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Еще 100 реакций на ☝️предыдущий пост и погнали 🫶</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>4138</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.02416626389560174</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.3645740898871002</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.02416626389560174</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>18.07.2025 17:59</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Очень актуально, сейчас как раз делаем рассылки 🥲🥲🥲</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>5111</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>18.07.2025 17:59</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Я в деле! Жду 6 августа 🥳</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>5213</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
         <v>0</v>
       </c>
     </row>
